--- a/T1B - parafina.xlsx
+++ b/T1B - parafina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D18FD04-73EB-4AF9-8BA7-AB1734631CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740F6CB4-CAC5-4F6F-84AF-29343E93D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F17DAB8E-EFBC-4BB1-A6D8-77474D4BA0EB}"/>
   </bookViews>
@@ -391,10 +391,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Parafina!$A$2:$A$439</c:f>
+              <c:f>Parafina!$A$2:$A$483</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="438"/>
+                <c:ptCount val="482"/>
                 <c:pt idx="0">
                   <c:v>3.2</c:v>
                 </c:pt>
@@ -1341,372 +1341,504 @@
                   <c:v>335.1</c:v>
                 </c:pt>
                 <c:pt idx="315">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="317">
                   <c:v>342.4</c:v>
                 </c:pt>
-                <c:pt idx="316">
+                <c:pt idx="318">
                   <c:v>351.2</c:v>
                 </c:pt>
-                <c:pt idx="317">
+                <c:pt idx="319">
                   <c:v>356.4</c:v>
                 </c:pt>
-                <c:pt idx="318">
+                <c:pt idx="320">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="324">
                   <c:v>375.7</c:v>
                 </c:pt>
-                <c:pt idx="319">
+                <c:pt idx="325">
                   <c:v>383.3</c:v>
                 </c:pt>
-                <c:pt idx="320">
+                <c:pt idx="326">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="329">
                   <c:v>397.1</c:v>
                 </c:pt>
-                <c:pt idx="321">
+                <c:pt idx="330">
                   <c:v>400.1</c:v>
                 </c:pt>
-                <c:pt idx="322">
+                <c:pt idx="331">
                   <c:v>407.8</c:v>
                 </c:pt>
-                <c:pt idx="323">
+                <c:pt idx="332">
                   <c:v>414.5</c:v>
                 </c:pt>
-                <c:pt idx="324">
+                <c:pt idx="333">
                   <c:v>421.8</c:v>
                 </c:pt>
-                <c:pt idx="325">
+                <c:pt idx="334">
                   <c:v>431.1</c:v>
                 </c:pt>
-                <c:pt idx="326">
+                <c:pt idx="335">
                   <c:v>441.9</c:v>
                 </c:pt>
-                <c:pt idx="327">
+                <c:pt idx="336">
                   <c:v>449.1</c:v>
                 </c:pt>
-                <c:pt idx="328">
+                <c:pt idx="337">
                   <c:v>457.4</c:v>
                 </c:pt>
-                <c:pt idx="329">
+                <c:pt idx="338">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="339">
                   <c:v>464.7</c:v>
                 </c:pt>
-                <c:pt idx="330">
+                <c:pt idx="340">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="341">
                   <c:v>469.4</c:v>
                 </c:pt>
-                <c:pt idx="331">
+                <c:pt idx="342">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="344">
                   <c:v>479.4</c:v>
                 </c:pt>
-                <c:pt idx="332">
+                <c:pt idx="345">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="347">
                   <c:v>487</c:v>
                 </c:pt>
-                <c:pt idx="333">
+                <c:pt idx="348">
                   <c:v>496.6</c:v>
                 </c:pt>
-                <c:pt idx="334">
+                <c:pt idx="349">
                   <c:v>504.4</c:v>
                 </c:pt>
-                <c:pt idx="335">
+                <c:pt idx="350">
                   <c:v>511.9</c:v>
                 </c:pt>
-                <c:pt idx="336">
+                <c:pt idx="351">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="355">
                   <c:v>530.70000000000005</c:v>
                 </c:pt>
-                <c:pt idx="337">
+                <c:pt idx="356">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="360">
                   <c:v>546.1</c:v>
                 </c:pt>
-                <c:pt idx="338">
+                <c:pt idx="361">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="365">
                   <c:v>561.5</c:v>
                 </c:pt>
-                <c:pt idx="339">
+                <c:pt idx="366">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="369">
                   <c:v>575.1</c:v>
                 </c:pt>
-                <c:pt idx="340">
+                <c:pt idx="370">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="373">
                   <c:v>590.1</c:v>
                 </c:pt>
-                <c:pt idx="341">
+                <c:pt idx="374">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="377">
                   <c:v>603.4</c:v>
                 </c:pt>
-                <c:pt idx="342">
+                <c:pt idx="378">
                   <c:v>616.1</c:v>
                 </c:pt>
-                <c:pt idx="343">
+                <c:pt idx="379">
                   <c:v>626.4</c:v>
                 </c:pt>
-                <c:pt idx="344">
+                <c:pt idx="380">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="383">
                   <c:v>640</c:v>
                 </c:pt>
-                <c:pt idx="345">
+                <c:pt idx="384">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="387">
                   <c:v>654.70000000000005</c:v>
                 </c:pt>
-                <c:pt idx="346">
+                <c:pt idx="388">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="390">
                   <c:v>666.4</c:v>
                 </c:pt>
-                <c:pt idx="347">
+                <c:pt idx="391">
                   <c:v>677.8</c:v>
                 </c:pt>
-                <c:pt idx="348">
+                <c:pt idx="392">
                   <c:v>689.9</c:v>
                 </c:pt>
-                <c:pt idx="349">
+                <c:pt idx="393">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="350">
+                <c:pt idx="394">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="351">
+                <c:pt idx="395">
                   <c:v>720</c:v>
                 </c:pt>
-                <c:pt idx="352">
+                <c:pt idx="396">
                   <c:v>730</c:v>
                 </c:pt>
-                <c:pt idx="353">
+                <c:pt idx="397">
                   <c:v>740</c:v>
                 </c:pt>
-                <c:pt idx="354">
+                <c:pt idx="398">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="355">
+                <c:pt idx="399">
                   <c:v>760</c:v>
                 </c:pt>
-                <c:pt idx="356">
+                <c:pt idx="400">
                   <c:v>770</c:v>
                 </c:pt>
-                <c:pt idx="357">
+                <c:pt idx="401">
                   <c:v>780</c:v>
                 </c:pt>
-                <c:pt idx="358">
+                <c:pt idx="402">
                   <c:v>790</c:v>
                 </c:pt>
-                <c:pt idx="359">
+                <c:pt idx="403">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="360">
+                <c:pt idx="404">
                   <c:v>810</c:v>
                 </c:pt>
-                <c:pt idx="361">
+                <c:pt idx="405">
                   <c:v>820</c:v>
                 </c:pt>
-                <c:pt idx="362">
+                <c:pt idx="406">
                   <c:v>830</c:v>
                 </c:pt>
-                <c:pt idx="363">
+                <c:pt idx="407">
                   <c:v>840</c:v>
                 </c:pt>
-                <c:pt idx="364">
+                <c:pt idx="408">
                   <c:v>850</c:v>
                 </c:pt>
-                <c:pt idx="365">
+                <c:pt idx="409">
                   <c:v>860</c:v>
                 </c:pt>
-                <c:pt idx="366">
+                <c:pt idx="410">
                   <c:v>870</c:v>
                 </c:pt>
-                <c:pt idx="367">
+                <c:pt idx="411">
                   <c:v>880</c:v>
                 </c:pt>
-                <c:pt idx="368">
+                <c:pt idx="412">
                   <c:v>890</c:v>
                 </c:pt>
-                <c:pt idx="369">
+                <c:pt idx="413">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="370">
+                <c:pt idx="414">
                   <c:v>910</c:v>
                 </c:pt>
-                <c:pt idx="371">
+                <c:pt idx="415">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="372">
+                <c:pt idx="416">
                   <c:v>930</c:v>
                 </c:pt>
-                <c:pt idx="373">
+                <c:pt idx="417">
                   <c:v>940</c:v>
                 </c:pt>
-                <c:pt idx="374">
+                <c:pt idx="418">
                   <c:v>950</c:v>
                 </c:pt>
-                <c:pt idx="375">
+                <c:pt idx="419">
                   <c:v>960</c:v>
                 </c:pt>
-                <c:pt idx="376">
+                <c:pt idx="420">
                   <c:v>970</c:v>
                 </c:pt>
-                <c:pt idx="377">
+                <c:pt idx="421">
                   <c:v>980</c:v>
                 </c:pt>
-                <c:pt idx="378">
+                <c:pt idx="422">
                   <c:v>990</c:v>
                 </c:pt>
-                <c:pt idx="379">
+                <c:pt idx="423">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="380">
+                <c:pt idx="424">
                   <c:v>1010</c:v>
                 </c:pt>
-                <c:pt idx="381">
+                <c:pt idx="425">
                   <c:v>1020</c:v>
                 </c:pt>
-                <c:pt idx="382">
+                <c:pt idx="426">
                   <c:v>1030</c:v>
                 </c:pt>
-                <c:pt idx="383">
+                <c:pt idx="427">
                   <c:v>1040</c:v>
                 </c:pt>
-                <c:pt idx="384">
+                <c:pt idx="428">
                   <c:v>1050</c:v>
                 </c:pt>
-                <c:pt idx="385">
+                <c:pt idx="429">
                   <c:v>1060</c:v>
                 </c:pt>
-                <c:pt idx="386">
+                <c:pt idx="430">
                   <c:v>1070</c:v>
                 </c:pt>
-                <c:pt idx="387">
+                <c:pt idx="431">
                   <c:v>1080</c:v>
                 </c:pt>
-                <c:pt idx="388">
+                <c:pt idx="432">
                   <c:v>1090</c:v>
                 </c:pt>
-                <c:pt idx="389">
+                <c:pt idx="433">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="390">
+                <c:pt idx="434">
                   <c:v>1110</c:v>
                 </c:pt>
-                <c:pt idx="391">
+                <c:pt idx="435">
                   <c:v>1120</c:v>
                 </c:pt>
-                <c:pt idx="392">
+                <c:pt idx="436">
                   <c:v>1130</c:v>
                 </c:pt>
-                <c:pt idx="393">
+                <c:pt idx="437">
                   <c:v>1140</c:v>
                 </c:pt>
-                <c:pt idx="394">
+                <c:pt idx="438">
                   <c:v>1150</c:v>
                 </c:pt>
-                <c:pt idx="395">
+                <c:pt idx="439">
                   <c:v>1160</c:v>
                 </c:pt>
-                <c:pt idx="396">
+                <c:pt idx="440">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="397">
+                <c:pt idx="441">
                   <c:v>1180</c:v>
                 </c:pt>
-                <c:pt idx="398">
+                <c:pt idx="442">
                   <c:v>1190</c:v>
                 </c:pt>
-                <c:pt idx="399">
+                <c:pt idx="443">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="400">
+                <c:pt idx="444">
                   <c:v>1210</c:v>
                 </c:pt>
-                <c:pt idx="401">
+                <c:pt idx="445">
                   <c:v>1220</c:v>
                 </c:pt>
-                <c:pt idx="402">
+                <c:pt idx="446">
                   <c:v>1230</c:v>
                 </c:pt>
-                <c:pt idx="403">
+                <c:pt idx="447">
                   <c:v>1240</c:v>
                 </c:pt>
-                <c:pt idx="404">
+                <c:pt idx="448">
                   <c:v>1250</c:v>
                 </c:pt>
-                <c:pt idx="405">
+                <c:pt idx="449">
                   <c:v>1260</c:v>
                 </c:pt>
-                <c:pt idx="406">
+                <c:pt idx="450">
                   <c:v>1270</c:v>
                 </c:pt>
-                <c:pt idx="407">
+                <c:pt idx="451">
                   <c:v>1280</c:v>
                 </c:pt>
-                <c:pt idx="408">
+                <c:pt idx="452">
                   <c:v>1290</c:v>
                 </c:pt>
-                <c:pt idx="409">
+                <c:pt idx="453">
                   <c:v>1300</c:v>
                 </c:pt>
-                <c:pt idx="410">
+                <c:pt idx="454">
                   <c:v>1310</c:v>
                 </c:pt>
-                <c:pt idx="411">
+                <c:pt idx="455">
                   <c:v>1320</c:v>
                 </c:pt>
-                <c:pt idx="412">
+                <c:pt idx="456">
                   <c:v>1330</c:v>
                 </c:pt>
-                <c:pt idx="413">
+                <c:pt idx="457">
                   <c:v>1340</c:v>
                 </c:pt>
-                <c:pt idx="414">
+                <c:pt idx="458">
                   <c:v>1350</c:v>
                 </c:pt>
-                <c:pt idx="415">
+                <c:pt idx="459">
                   <c:v>1360</c:v>
                 </c:pt>
-                <c:pt idx="416">
+                <c:pt idx="460">
                   <c:v>1370</c:v>
                 </c:pt>
-                <c:pt idx="417">
+                <c:pt idx="461">
                   <c:v>1380</c:v>
                 </c:pt>
-                <c:pt idx="418">
+                <c:pt idx="462">
                   <c:v>1390</c:v>
                 </c:pt>
-                <c:pt idx="419">
+                <c:pt idx="463">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="420">
+                <c:pt idx="464">
                   <c:v>1410</c:v>
                 </c:pt>
-                <c:pt idx="421">
+                <c:pt idx="465">
                   <c:v>1420</c:v>
                 </c:pt>
-                <c:pt idx="422">
+                <c:pt idx="466">
                   <c:v>1430</c:v>
                 </c:pt>
-                <c:pt idx="423">
+                <c:pt idx="467">
                   <c:v>1440</c:v>
                 </c:pt>
-                <c:pt idx="424">
+                <c:pt idx="468">
                   <c:v>1450</c:v>
                 </c:pt>
-                <c:pt idx="425">
+                <c:pt idx="469">
                   <c:v>1460</c:v>
                 </c:pt>
-                <c:pt idx="426">
+                <c:pt idx="470">
                   <c:v>1470</c:v>
                 </c:pt>
-                <c:pt idx="427">
+                <c:pt idx="471">
                   <c:v>1480</c:v>
                 </c:pt>
-                <c:pt idx="428">
+                <c:pt idx="472">
                   <c:v>1490</c:v>
                 </c:pt>
-                <c:pt idx="429">
+                <c:pt idx="473">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="430">
+                <c:pt idx="474">
                   <c:v>1510</c:v>
                 </c:pt>
-                <c:pt idx="431">
+                <c:pt idx="475">
                   <c:v>1520</c:v>
                 </c:pt>
-                <c:pt idx="432">
+                <c:pt idx="476">
                   <c:v>1530</c:v>
                 </c:pt>
-                <c:pt idx="433">
+                <c:pt idx="477">
                   <c:v>1540</c:v>
                 </c:pt>
-                <c:pt idx="434">
+                <c:pt idx="478">
                   <c:v>1550</c:v>
                 </c:pt>
-                <c:pt idx="435">
+                <c:pt idx="479">
                   <c:v>1560</c:v>
                 </c:pt>
-                <c:pt idx="436">
+                <c:pt idx="480">
                   <c:v>1570</c:v>
                 </c:pt>
-                <c:pt idx="437">
+                <c:pt idx="481">
                   <c:v>1580</c:v>
                 </c:pt>
               </c:numCache>
@@ -1714,10 +1846,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Parafina!$C$2:$C$439</c:f>
+              <c:f>Parafina!$C$2:$C$483</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="438"/>
+                <c:ptCount val="482"/>
                 <c:pt idx="0">
                   <c:v>93.4</c:v>
                 </c:pt>
@@ -2634,403 +2766,535 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>60</c:v>
+                  <c:v>59.9</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>59.9</c:v>
+                  <c:v>59.8</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>59.8</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>59.7</c:v>
+                  <c:v>59.6</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>59.6</c:v>
+                  <c:v>59.3</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>59.4</c:v>
+                  <c:v>58.8</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>59.4</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>59.3</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>59.3</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>59.3</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>59.3</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>59.3</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>59.2</c:v>
+                  <c:v>58.2</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>59.2</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>59.2</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>59.1</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>59.1</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>59.0571428571429</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>59.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>59.4</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>59.2</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>59.199999999999996</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>59.1</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>59.1</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>59</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>59</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>58.9</c:v>
+                  <c:v>57.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>58.8</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>58.699999999999996</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>58.699999999999996</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>58.6</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>58.5</c:v>
+                  <c:v>57.757142857142902</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>58.4</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>58.3</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>58.199999999999996</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>58.1</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="364">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="365">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>57.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="413">
                   <c:v>57.9</c:v>
                 </c:pt>
-                <c:pt idx="366">
-                  <c:v>57.8</c:v>
-                </c:pt>
-                <c:pt idx="367">
+                <c:pt idx="414">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>57.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="418">
                   <c:v>57.6</c:v>
                 </c:pt>
-                <c:pt idx="368">
+                <c:pt idx="419">
                   <c:v>57.5</c:v>
                 </c:pt>
-                <c:pt idx="369">
+                <c:pt idx="420">
                   <c:v>57.4</c:v>
                 </c:pt>
-                <c:pt idx="370">
-                  <c:v>57.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="371">
+                <c:pt idx="421">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>57.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="425">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="372">
+                <c:pt idx="426">
                   <c:v>56.9</c:v>
                 </c:pt>
-                <c:pt idx="373">
-                  <c:v>56.699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="374">
+                <c:pt idx="427">
+                  <c:v>56.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="430">
                   <c:v>56.5</c:v>
                 </c:pt>
-                <c:pt idx="375">
-                  <c:v>56.3</c:v>
-                </c:pt>
-                <c:pt idx="376">
+                <c:pt idx="431">
+                  <c:v>56.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="433">
                   <c:v>56.1</c:v>
                 </c:pt>
-                <c:pt idx="377">
+                <c:pt idx="434">
                   <c:v>55.9</c:v>
                 </c:pt>
-                <c:pt idx="378">
+                <c:pt idx="435">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="436">
                   <c:v>55.6</c:v>
                 </c:pt>
-                <c:pt idx="379">
-                  <c:v>55.3</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>55.1</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>54.8</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>54.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>53.9</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>53.6</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>53.3</c:v>
-                </c:pt>
-                <c:pt idx="387">
+                <c:pt idx="437">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>54.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>54.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>53.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="447">
                   <c:v>52.9</c:v>
                 </c:pt>
-                <c:pt idx="388">
+                <c:pt idx="448">
                   <c:v>52.6</c:v>
                 </c:pt>
-                <c:pt idx="389">
-                  <c:v>52.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>51.9</c:v>
-                </c:pt>
-                <c:pt idx="391">
+                <c:pt idx="449">
+                  <c:v>52.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="451">
                   <c:v>51.6</c:v>
                 </c:pt>
-                <c:pt idx="392">
-                  <c:v>51.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="393">
+                <c:pt idx="452">
+                  <c:v>51.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="453">
                   <c:v>50.9</c:v>
                 </c:pt>
-                <c:pt idx="394">
-                  <c:v>50.5</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>50.1</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>49.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>48.8</c:v>
-                </c:pt>
-                <c:pt idx="400">
+                <c:pt idx="454">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>50.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>48.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="460">
                   <c:v>48.5</c:v>
                 </c:pt>
-                <c:pt idx="401">
-                  <c:v>48.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="402">
+                <c:pt idx="461">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="462">
                   <c:v>47.9</c:v>
                 </c:pt>
-                <c:pt idx="403">
+                <c:pt idx="463">
                   <c:v>47.5</c:v>
                 </c:pt>
-                <c:pt idx="404">
-                  <c:v>47.3</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>46.8</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>46.3</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>46.1</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>45.9</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>45.699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="412">
+                <c:pt idx="464">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="470">
                   <c:v>45.5</c:v>
                 </c:pt>
-                <c:pt idx="413">
-                  <c:v>45.3</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>45.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="415">
+                <c:pt idx="471">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="472">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="416">
-                  <c:v>44.8</c:v>
-                </c:pt>
-                <c:pt idx="417">
+                <c:pt idx="473">
+                  <c:v>44.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="474">
                   <c:v>44.6</c:v>
                 </c:pt>
-                <c:pt idx="418">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="419">
+                <c:pt idx="475">
                   <c:v>44.4</c:v>
                 </c:pt>
-                <c:pt idx="420">
-                  <c:v>44.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="421">
+                <c:pt idx="476">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="477">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="422">
+                <c:pt idx="478">
                   <c:v>43.9</c:v>
                 </c:pt>
-                <c:pt idx="423">
-                  <c:v>43.699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>43.6</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>43.4</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>43.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>43.1</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>42.699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>42.4</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>42.199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>41.9</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>41.8</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>41.6</c:v>
+                <c:pt idx="479">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>43.300000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,15 +4178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>543476</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>154188</xdr:rowOff>
+      <xdr:colOff>815553</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>22857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>239337</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45192</xdr:rowOff>
+      <xdr:colOff>500657</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4247,10 +4511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8059F4AC-919C-4004-8A7F-01F324459E41}">
-  <dimension ref="A1:T439"/>
+  <dimension ref="A1:T503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4298,6 +4562,9 @@
         <f>B2+3</f>
         <v>93.4</v>
       </c>
+      <c r="D2" s="3">
+        <v>93.4</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4318,6 +4585,9 @@
         <f t="shared" ref="C3:C66" si="0">B3+3</f>
         <v>93.2</v>
       </c>
+      <c r="D3" s="3">
+        <v>93.2</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4338,6 +4608,9 @@
         <f t="shared" si="0"/>
         <v>93.1</v>
       </c>
+      <c r="D4" s="3">
+        <v>93.1</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4358,6 +4631,9 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
+      <c r="D5" s="3">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -4370,6 +4646,9 @@
         <f t="shared" si="0"/>
         <v>92.8</v>
       </c>
+      <c r="D6" s="3">
+        <v>92.8</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -4382,6 +4661,9 @@
         <f t="shared" si="0"/>
         <v>92.7</v>
       </c>
+      <c r="D7" s="3">
+        <v>92.7</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -4394,6 +4676,9 @@
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
+      <c r="D8" s="3">
+        <v>92.5</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -4406,6 +4691,9 @@
         <f t="shared" si="0"/>
         <v>92.4</v>
       </c>
+      <c r="D9" s="3">
+        <v>92.4</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -4418,6 +4706,9 @@
         <f t="shared" si="0"/>
         <v>92.2</v>
       </c>
+      <c r="D10" s="3">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -4430,6 +4721,9 @@
         <f t="shared" si="0"/>
         <v>92.1</v>
       </c>
+      <c r="D11" s="3">
+        <v>92.1</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -4442,6 +4736,9 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
+      <c r="D12" s="3">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -4454,6 +4751,9 @@
         <f t="shared" si="0"/>
         <v>91.8</v>
       </c>
+      <c r="D13" s="3">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -4466,6 +4766,9 @@
         <f t="shared" si="0"/>
         <v>91.7</v>
       </c>
+      <c r="D14" s="3">
+        <v>91.7</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -4478,6 +4781,9 @@
         <f t="shared" si="0"/>
         <v>91.6</v>
       </c>
+      <c r="D15" s="3">
+        <v>91.6</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -4490,8 +4796,11 @@
         <f t="shared" si="0"/>
         <v>91.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>11.5</v>
       </c>
@@ -4502,8 +4811,11 @@
         <f t="shared" si="0"/>
         <v>91.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>11.8</v>
       </c>
@@ -4514,8 +4826,11 @@
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="3">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>12.6</v>
       </c>
@@ -4526,8 +4841,11 @@
         <f t="shared" si="0"/>
         <v>91.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>13.1</v>
       </c>
@@ -4538,8 +4856,11 @@
         <f t="shared" si="0"/>
         <v>90.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>13.3</v>
       </c>
@@ -4550,8 +4871,11 @@
         <f t="shared" si="0"/>
         <v>90.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>13.4</v>
       </c>
@@ -4562,8 +4886,11 @@
         <f t="shared" si="0"/>
         <v>90.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>14.3</v>
       </c>
@@ -4574,8 +4901,11 @@
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="3">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>15</v>
       </c>
@@ -4586,8 +4916,11 @@
         <f t="shared" si="0"/>
         <v>90.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="3">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>15.5</v>
       </c>
@@ -4598,8 +4931,11 @@
         <f t="shared" si="0"/>
         <v>90.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="3">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>16.100000000000001</v>
       </c>
@@ -4610,8 +4946,11 @@
         <f t="shared" si="0"/>
         <v>90.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="3">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>16.600000000000001</v>
       </c>
@@ -4622,8 +4961,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>17.7</v>
       </c>
@@ -4634,8 +4976,11 @@
         <f t="shared" si="0"/>
         <v>89.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="3">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>17.899999999999999</v>
       </c>
@@ -4646,8 +4991,11 @@
         <f t="shared" si="0"/>
         <v>89.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="3">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>18.3</v>
       </c>
@@ -4658,8 +5006,11 @@
         <f t="shared" si="0"/>
         <v>89.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="3">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>19.5</v>
       </c>
@@ -4670,8 +5021,11 @@
         <f t="shared" si="0"/>
         <v>89.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="3">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>19.600000000000001</v>
       </c>
@@ -4682,8 +5036,11 @@
         <f t="shared" si="0"/>
         <v>89.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="3">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>20.3</v>
       </c>
@@ -4694,8 +5051,11 @@
         <f t="shared" si="0"/>
         <v>89.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="3">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>20.8</v>
       </c>
@@ -4706,8 +5066,11 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>21.3</v>
       </c>
@@ -4718,8 +5081,11 @@
         <f t="shared" si="0"/>
         <v>88.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>21.8</v>
       </c>
@@ -4730,8 +5096,11 @@
         <f t="shared" si="0"/>
         <v>88.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="3">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>22.4</v>
       </c>
@@ -4742,8 +5111,11 @@
         <f t="shared" si="0"/>
         <v>88.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="3">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>22.4</v>
       </c>
@@ -4754,8 +5126,11 @@
         <f t="shared" si="0"/>
         <v>88.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="3">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>23.4</v>
       </c>
@@ -4766,8 +5141,11 @@
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="3">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>24.1</v>
       </c>
@@ -4778,8 +5156,11 @@
         <f t="shared" si="0"/>
         <v>88.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="3">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>24.5</v>
       </c>
@@ -4790,8 +5171,11 @@
         <f t="shared" si="0"/>
         <v>88.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="3">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>25</v>
       </c>
@@ -4802,8 +5186,11 @@
         <f t="shared" si="0"/>
         <v>88.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="3">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>25.5</v>
       </c>
@@ -4814,8 +5201,11 @@
         <f t="shared" si="0"/>
         <v>88.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="3">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>26</v>
       </c>
@@ -4826,8 +5216,11 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>26.8</v>
       </c>
@@ -4838,8 +5231,11 @@
         <f t="shared" si="0"/>
         <v>87.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="3">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>27.4</v>
       </c>
@@ -4850,8 +5246,11 @@
         <f t="shared" si="0"/>
         <v>87.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="3">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>27.8</v>
       </c>
@@ -4862,8 +5261,11 @@
         <f t="shared" si="0"/>
         <v>87.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="3">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>28.2</v>
       </c>
@@ -4874,8 +5276,11 @@
         <f t="shared" si="0"/>
         <v>87.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>28.8</v>
       </c>
@@ -4886,8 +5291,11 @@
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="3">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>29.3</v>
       </c>
@@ -4898,8 +5306,11 @@
         <f t="shared" si="0"/>
         <v>87.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="3">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>30.5</v>
       </c>
@@ -4910,8 +5321,11 @@
         <f t="shared" si="0"/>
         <v>87.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="3">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>31</v>
       </c>
@@ -4922,8 +5336,11 @@
         <f t="shared" si="0"/>
         <v>87.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="3">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>31.6</v>
       </c>
@@ -4934,8 +5351,11 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>32.5</v>
       </c>
@@ -4946,8 +5366,11 @@
         <f t="shared" si="0"/>
         <v>86.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="3">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>33.6</v>
       </c>
@@ -4958,8 +5381,11 @@
         <f t="shared" si="0"/>
         <v>86.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="3">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>34.1</v>
       </c>
@@ -4970,8 +5396,11 @@
         <f t="shared" si="0"/>
         <v>86.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="3">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>34.799999999999997</v>
       </c>
@@ -4982,8 +5411,11 @@
         <f t="shared" si="0"/>
         <v>86.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="3">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>35.200000000000003</v>
       </c>
@@ -4994,8 +5426,11 @@
         <f t="shared" si="0"/>
         <v>86.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="3">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>36</v>
       </c>
@@ -5006,8 +5441,11 @@
         <f t="shared" si="0"/>
         <v>86.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="3">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>39.5</v>
       </c>
@@ -5018,8 +5456,11 @@
         <f t="shared" si="0"/>
         <v>85.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="3">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>40.6</v>
       </c>
@@ -5030,8 +5471,11 @@
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="3">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>41.2</v>
       </c>
@@ -5042,8 +5486,11 @@
         <f t="shared" si="0"/>
         <v>85.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="3">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>41.8</v>
       </c>
@@ -5054,8 +5501,11 @@
         <f t="shared" si="0"/>
         <v>85.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="3">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>42.2</v>
       </c>
@@ -5066,8 +5516,11 @@
         <f t="shared" si="0"/>
         <v>85.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="3">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>42.6</v>
       </c>
@@ -5078,8 +5531,11 @@
         <f t="shared" si="0"/>
         <v>85.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="3">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>43.2</v>
       </c>
@@ -5090,8 +5546,11 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>43.9</v>
       </c>
@@ -5102,8 +5561,11 @@
         <f t="shared" ref="C67:C130" si="1">B67+3</f>
         <v>84.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="3">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>45.4</v>
       </c>
@@ -5114,8 +5576,11 @@
         <f t="shared" si="1"/>
         <v>84.6</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="3">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>46.1</v>
       </c>
@@ -5126,8 +5591,11 @@
         <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="3">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>46.4</v>
       </c>
@@ -5138,8 +5606,11 @@
         <f t="shared" si="1"/>
         <v>84.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="3">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>41.4</v>
       </c>
@@ -5150,8 +5621,11 @@
         <f t="shared" si="1"/>
         <v>84.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="3">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>48.5</v>
       </c>
@@ -5162,8 +5636,11 @@
         <f t="shared" si="1"/>
         <v>84.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="3">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>49</v>
       </c>
@@ -5174,8 +5651,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>50.2</v>
       </c>
@@ -5186,8 +5666,11 @@
         <f t="shared" si="1"/>
         <v>83.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="3">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>50.7</v>
       </c>
@@ -5198,8 +5681,11 @@
         <f t="shared" si="1"/>
         <v>83.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="3">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>51.1</v>
       </c>
@@ -5210,8 +5696,11 @@
         <f t="shared" si="1"/>
         <v>83.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="3">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>51.8</v>
       </c>
@@ -5222,8 +5711,11 @@
         <f t="shared" si="1"/>
         <v>83.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="3">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>52.2</v>
       </c>
@@ -5234,8 +5726,11 @@
         <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="3">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>52.1</v>
       </c>
@@ -5246,8 +5741,11 @@
         <f t="shared" si="1"/>
         <v>83.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="3">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>53.3</v>
       </c>
@@ -5258,8 +5756,11 @@
         <f t="shared" si="1"/>
         <v>83.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="3">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>54.4</v>
       </c>
@@ -5270,8 +5771,11 @@
         <f t="shared" si="1"/>
         <v>83.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="3">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>54.8</v>
       </c>
@@ -5282,8 +5786,11 @@
         <f t="shared" si="1"/>
         <v>83.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="3">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>55.4</v>
       </c>
@@ -5294,8 +5801,11 @@
         <f t="shared" si="1"/>
         <v>82.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="3">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>56.5</v>
       </c>
@@ -5306,8 +5816,11 @@
         <f t="shared" si="1"/>
         <v>82.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="3">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>57</v>
       </c>
@@ -5318,8 +5831,11 @@
         <f t="shared" si="1"/>
         <v>82.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="3">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>58</v>
       </c>
@@ -5330,8 +5846,11 @@
         <f t="shared" si="1"/>
         <v>82.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="3">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>58.6</v>
       </c>
@@ -5342,8 +5861,11 @@
         <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="3">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>59.6</v>
       </c>
@@ -5354,8 +5876,11 @@
         <f t="shared" si="1"/>
         <v>82.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="3">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>59.8</v>
       </c>
@@ -5366,8 +5891,11 @@
         <f t="shared" si="1"/>
         <v>82.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="3">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>61.4</v>
       </c>
@@ -5378,8 +5906,11 @@
         <f t="shared" si="1"/>
         <v>82.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="3">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>61.7</v>
       </c>
@@ -5390,8 +5921,11 @@
         <f t="shared" si="1"/>
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="3">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>63.1</v>
       </c>
@@ -5402,8 +5936,11 @@
         <f t="shared" si="1"/>
         <v>81.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="3">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>63.7</v>
       </c>
@@ -5414,8 +5951,11 @@
         <f t="shared" si="1"/>
         <v>81.7</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="3">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>63.9</v>
       </c>
@@ -5426,8 +5966,11 @@
         <f t="shared" si="1"/>
         <v>81.599999999999994</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="3">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>65</v>
       </c>
@@ -5438,8 +5981,11 @@
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="3">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>65.5</v>
       </c>
@@ -5450,8 +5996,11 @@
         <f t="shared" si="1"/>
         <v>81.400000000000006</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="3">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>66.2</v>
       </c>
@@ -5462,8 +6011,11 @@
         <f t="shared" si="1"/>
         <v>81.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="3">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>66.7</v>
       </c>
@@ -5474,8 +6026,11 @@
         <f t="shared" si="1"/>
         <v>81.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="3">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>67.099999999999994</v>
       </c>
@@ -5486,8 +6041,11 @@
         <f t="shared" si="1"/>
         <v>81.099999999999994</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="3">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>68.2</v>
       </c>
@@ -5498,8 +6056,11 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>68.7</v>
       </c>
@@ -5510,8 +6071,11 @@
         <f t="shared" si="1"/>
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="3">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>69.3</v>
       </c>
@@ -5522,8 +6086,11 @@
         <f t="shared" si="1"/>
         <v>80.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="3">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>69.8</v>
       </c>
@@ -5534,8 +6101,11 @@
         <f t="shared" si="1"/>
         <v>80.7</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="3">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>70.3</v>
       </c>
@@ -5546,8 +6116,11 @@
         <f t="shared" si="1"/>
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="3">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>70.8</v>
       </c>
@@ -5558,8 +6131,11 @@
         <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="3">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>72.099999999999994</v>
       </c>
@@ -5570,8 +6146,11 @@
         <f t="shared" si="1"/>
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="3">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>72.900000000000006</v>
       </c>
@@ -5582,8 +6161,11 @@
         <f t="shared" si="1"/>
         <v>80.3</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="3">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>73</v>
       </c>
@@ -5594,8 +6176,11 @@
         <f t="shared" si="1"/>
         <v>80.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="3">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>74</v>
       </c>
@@ -5606,8 +6191,11 @@
         <f t="shared" si="1"/>
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="3">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>74.599999999999994</v>
       </c>
@@ -5618,8 +6206,11 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>75.099999999999994</v>
       </c>
@@ -5630,8 +6221,11 @@
         <f t="shared" si="1"/>
         <v>79.900000000000006</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="3">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>76.2</v>
       </c>
@@ -5642,8 +6236,11 @@
         <f t="shared" si="1"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="3">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>76.7</v>
       </c>
@@ -5654,8 +6251,11 @@
         <f t="shared" si="1"/>
         <v>79.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="3">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>77.7</v>
       </c>
@@ -5666,8 +6266,11 @@
         <f t="shared" si="1"/>
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="3">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>78.5</v>
       </c>
@@ -5678,8 +6281,11 @@
         <f t="shared" si="1"/>
         <v>79.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="3">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>78.8</v>
       </c>
@@ -5690,8 +6296,11 @@
         <f t="shared" si="1"/>
         <v>79.400000000000006</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="3">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>79.900000000000006</v>
       </c>
@@ -5702,8 +6311,11 @@
         <f t="shared" si="1"/>
         <v>79.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="3">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>80.400000000000006</v>
       </c>
@@ -5714,8 +6326,11 @@
         <f t="shared" si="1"/>
         <v>79.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="3">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>81.599999999999994</v>
       </c>
@@ -5726,8 +6341,11 @@
         <f t="shared" si="1"/>
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="3">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>82.1</v>
       </c>
@@ -5738,8 +6356,11 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>82.6</v>
       </c>
@@ -5750,8 +6371,11 @@
         <f t="shared" si="1"/>
         <v>78.900000000000006</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="3">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>83.1</v>
       </c>
@@ -5762,8 +6386,11 @@
         <f t="shared" si="1"/>
         <v>78.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="3">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>84.1</v>
       </c>
@@ -5774,8 +6401,11 @@
         <f t="shared" si="1"/>
         <v>78.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="3">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>84.7</v>
       </c>
@@ -5786,8 +6416,11 @@
         <f t="shared" si="1"/>
         <v>78.599999999999994</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="3">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>85.2</v>
       </c>
@@ -5798,8 +6431,11 @@
         <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="3">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>85.8</v>
       </c>
@@ -5810,8 +6446,11 @@
         <f t="shared" si="1"/>
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="3">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>86.8</v>
       </c>
@@ -5822,8 +6461,11 @@
         <f t="shared" si="1"/>
         <v>78.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="3">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>87.4</v>
       </c>
@@ -5834,8 +6476,11 @@
         <f t="shared" si="1"/>
         <v>78.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="3">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>87.8</v>
       </c>
@@ -5846,8 +6491,11 @@
         <f t="shared" si="1"/>
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="3">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>89</v>
       </c>
@@ -5858,8 +6506,11 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>89.5</v>
       </c>
@@ -5870,8 +6521,11 @@
         <f t="shared" ref="C131:C194" si="2">B131+3</f>
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="3">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>90</v>
       </c>
@@ -5882,8 +6536,11 @@
         <f t="shared" si="2"/>
         <v>77.800000000000097</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="3">
+        <v>77.800000000000097</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>91</v>
       </c>
@@ -5894,8 +6551,11 @@
         <f t="shared" si="2"/>
         <v>77.700000000000102</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="3">
+        <v>77.700000000000102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>91.6</v>
       </c>
@@ -5906,8 +6566,11 @@
         <f t="shared" si="2"/>
         <v>77.600000000000094</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="3">
+        <v>77.600000000000094</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>92.1</v>
       </c>
@@ -5918,8 +6581,11 @@
         <f t="shared" si="2"/>
         <v>77.500000000000099</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="3">
+        <v>77.500000000000099</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>92.7</v>
       </c>
@@ -5930,8 +6596,11 @@
         <f t="shared" si="2"/>
         <v>77.400000000000105</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="3">
+        <v>77.400000000000105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>93.2</v>
       </c>
@@ -5942,8 +6611,11 @@
         <f t="shared" si="2"/>
         <v>77.300000000000097</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="3">
+        <v>77.300000000000097</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>94.3</v>
       </c>
@@ -5954,8 +6626,11 @@
         <f t="shared" si="2"/>
         <v>77.200000000000102</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="3">
+        <v>77.200000000000102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>94.8</v>
       </c>
@@ -5966,8 +6641,11 @@
         <f t="shared" si="2"/>
         <v>77.100000000000094</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="3">
+        <v>77.100000000000094</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>95.3</v>
       </c>
@@ -5978,8 +6656,11 @@
         <f t="shared" si="2"/>
         <v>77.000000000000099</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="3">
+        <v>77.000000000000099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>95.9</v>
       </c>
@@ -5990,8 +6671,11 @@
         <f t="shared" si="2"/>
         <v>76.900000000000105</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="3">
+        <v>76.900000000000105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>96.4</v>
       </c>
@@ -6002,8 +6686,11 @@
         <f t="shared" si="2"/>
         <v>76.800000000000097</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="3">
+        <v>76.800000000000097</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>96.8</v>
       </c>
@@ -6014,8 +6701,11 @@
         <f t="shared" si="2"/>
         <v>76.700000000000102</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="3">
+        <v>76.700000000000102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>97.5</v>
       </c>
@@ -6026,8 +6716,11 @@
         <f t="shared" si="2"/>
         <v>76.600000000000094</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="3">
+        <v>76.600000000000094</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>98</v>
       </c>
@@ -6038,8 +6731,11 @@
         <f t="shared" si="2"/>
         <v>76.500000000000099</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="3">
+        <v>76.500000000000099</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>98.5</v>
       </c>
@@ -6050,8 +6746,11 @@
         <f t="shared" si="2"/>
         <v>76.400000000000105</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="3">
+        <v>76.400000000000105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>98.9</v>
       </c>
@@ -6062,8 +6761,11 @@
         <f t="shared" si="2"/>
         <v>76.300000000000097</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="3">
+        <v>76.300000000000097</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>99.7</v>
       </c>
@@ -6074,8 +6776,11 @@
         <f t="shared" si="2"/>
         <v>76.200000000000102</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="3">
+        <v>76.200000000000102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>100.2</v>
       </c>
@@ -6086,8 +6791,11 @@
         <f t="shared" si="2"/>
         <v>76.100000000000193</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="3">
+        <v>76.100000000000193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>100.7</v>
       </c>
@@ -6098,8 +6806,11 @@
         <f t="shared" si="2"/>
         <v>76.000000000000199</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="3">
+        <v>76.000000000000199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>101.2</v>
       </c>
@@ -6110,8 +6821,11 @@
         <f t="shared" si="2"/>
         <v>75.900000000000205</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="3">
+        <v>75.900000000000205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>101.8</v>
       </c>
@@ -6122,8 +6836,11 @@
         <f t="shared" si="2"/>
         <v>75.800000000000196</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="3">
+        <v>75.800000000000196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>102.3</v>
       </c>
@@ -6134,8 +6851,11 @@
         <f t="shared" si="2"/>
         <v>75.700000000000202</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="3">
+        <v>75.700000000000202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>102.8</v>
       </c>
@@ -6146,8 +6866,11 @@
         <f t="shared" si="2"/>
         <v>75.600000000000193</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="3">
+        <v>75.600000000000193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>103.4</v>
       </c>
@@ -6158,8 +6881,11 @@
         <f t="shared" si="2"/>
         <v>75.500000000000199</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="3">
+        <v>75.500000000000199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>103.9</v>
       </c>
@@ -6170,8 +6896,11 @@
         <f t="shared" si="2"/>
         <v>75.400000000000205</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="3">
+        <v>75.400000000000205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>105</v>
       </c>
@@ -6182,8 +6911,11 @@
         <f t="shared" si="2"/>
         <v>75.300000000000196</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="3">
+        <v>75.300000000000196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>105.6</v>
       </c>
@@ -6194,8 +6926,11 @@
         <f t="shared" si="2"/>
         <v>75.200000000000202</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="3">
+        <v>75.200000000000202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>106</v>
       </c>
@@ -6206,8 +6941,11 @@
         <f t="shared" si="2"/>
         <v>75.100000000000193</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="3">
+        <v>75.100000000000193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>106.6</v>
       </c>
@@ -6218,8 +6956,11 @@
         <f t="shared" si="2"/>
         <v>75.000000000000199</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="3">
+        <v>75.000000000000199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>107</v>
       </c>
@@ -6230,8 +6971,11 @@
         <f t="shared" si="2"/>
         <v>74.900000000000205</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="3">
+        <v>74.900000000000205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>108.5</v>
       </c>
@@ -6242,8 +6986,11 @@
         <f t="shared" si="2"/>
         <v>74.800000000000196</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="3">
+        <v>74.800000000000196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>109.2</v>
       </c>
@@ -6254,8 +7001,11 @@
         <f t="shared" si="2"/>
         <v>74.700000000000202</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="3">
+        <v>74.700000000000202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>109.8</v>
       </c>
@@ -6266,8 +7016,11 @@
         <f t="shared" si="2"/>
         <v>74.600000000000193</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="3">
+        <v>74.600000000000193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>110.8</v>
       </c>
@@ -6278,8 +7031,11 @@
         <f t="shared" si="2"/>
         <v>74.500000000000199</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="3">
+        <v>74.500000000000199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>111.3</v>
       </c>
@@ -6290,8 +7046,11 @@
         <f t="shared" si="2"/>
         <v>74.400000000000205</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="3">
+        <v>74.400000000000205</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>112.4</v>
       </c>
@@ -6302,8 +7061,11 @@
         <f t="shared" si="2"/>
         <v>74.300000000000296</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="3">
+        <v>74.300000000000296</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>113.5</v>
       </c>
@@ -6314,8 +7076,11 @@
         <f t="shared" si="2"/>
         <v>74.200000000000301</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="3">
+        <v>74.200000000000301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>114.6</v>
       </c>
@@ -6326,8 +7091,11 @@
         <f t="shared" si="2"/>
         <v>74.100000000000193</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="3">
+        <v>74.100000000000193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>115.6</v>
       </c>
@@ -6338,8 +7106,11 @@
         <f t="shared" si="2"/>
         <v>74.000000000000199</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="3">
+        <v>74.000000000000199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>116.4</v>
       </c>
@@ -6350,8 +7121,11 @@
         <f t="shared" si="2"/>
         <v>73.900000000000205</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="3">
+        <v>73.900000000000205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>117.3</v>
       </c>
@@ -6362,8 +7136,11 @@
         <f t="shared" si="2"/>
         <v>73.800000000000196</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="3">
+        <v>73.800000000000196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>118.4</v>
       </c>
@@ -6374,8 +7151,11 @@
         <f t="shared" si="2"/>
         <v>73.700000000000202</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="3">
+        <v>73.700000000000202</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>119.5</v>
       </c>
@@ -6386,8 +7166,11 @@
         <f t="shared" si="2"/>
         <v>73.600000000000307</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="3">
+        <v>73.600000000000307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>120.4</v>
       </c>
@@ -6398,8 +7181,11 @@
         <f t="shared" si="2"/>
         <v>73.500000000000298</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="3">
+        <v>73.500000000000298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>121.9</v>
       </c>
@@ -6410,8 +7196,11 @@
         <f t="shared" si="2"/>
         <v>73.400000000000304</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="3">
+        <v>73.400000000000304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>122.1</v>
       </c>
@@ -6422,8 +7211,11 @@
         <f t="shared" si="2"/>
         <v>73.300000000000296</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="3">
+        <v>73.300000000000296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>122.7</v>
       </c>
@@ -6434,8 +7226,11 @@
         <f t="shared" si="2"/>
         <v>73.200000000000301</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="3">
+        <v>73.200000000000301</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>123.7</v>
       </c>
@@ -6446,8 +7241,11 @@
         <f t="shared" si="2"/>
         <v>73.100000000000307</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="3">
+        <v>73.100000000000307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>124.8</v>
       </c>
@@ -6458,8 +7256,11 @@
         <f t="shared" si="2"/>
         <v>73.000000000000298</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="3">
+        <v>73.000000000000298</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>125.8</v>
       </c>
@@ -6470,8 +7271,11 @@
         <f t="shared" si="2"/>
         <v>72.900000000000304</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="3">
+        <v>72.900000000000304</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>126.3</v>
       </c>
@@ -6482,8 +7286,11 @@
         <f t="shared" si="2"/>
         <v>72.800000000000296</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="3">
+        <v>72.800000000000296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>126.9</v>
       </c>
@@ -6494,8 +7301,11 @@
         <f t="shared" si="2"/>
         <v>72.700000000000301</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="3">
+        <v>72.700000000000301</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <v>127.5</v>
       </c>
@@ -6506,8 +7316,11 @@
         <f t="shared" si="2"/>
         <v>72.600000000000307</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="3">
+        <v>72.600000000000307</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>128</v>
       </c>
@@ -6518,8 +7331,11 @@
         <f t="shared" si="2"/>
         <v>72.500000000000298</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="3">
+        <v>72.500000000000298</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>129.4</v>
       </c>
@@ -6530,8 +7346,11 @@
         <f t="shared" si="2"/>
         <v>72.400000000000304</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="3">
+        <v>72.400000000000304</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>130.69999999999999</v>
       </c>
@@ -6542,8 +7361,11 @@
         <f t="shared" si="2"/>
         <v>72.300000000000296</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="3">
+        <v>72.300000000000296</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>131.1</v>
       </c>
@@ -6554,8 +7376,11 @@
         <f t="shared" si="2"/>
         <v>72.200000000000301</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="3">
+        <v>72.200000000000301</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>132.1</v>
       </c>
@@ -6566,8 +7391,11 @@
         <f t="shared" si="2"/>
         <v>72.100000000000307</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="3">
+        <v>72.100000000000307</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>132.5</v>
       </c>
@@ -6578,8 +7406,11 @@
         <f t="shared" si="2"/>
         <v>72.000000000000298</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="3">
+        <v>72.000000000000298</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>133.69999999999999</v>
       </c>
@@ -6590,8 +7421,11 @@
         <f t="shared" si="2"/>
         <v>71.900000000000304</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="3">
+        <v>71.900000000000304</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>134.80000000000001</v>
       </c>
@@ -6602,8 +7436,11 @@
         <f t="shared" si="2"/>
         <v>71.800000000000395</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="3">
+        <v>71.800000000000395</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
         <v>135.80000000000001</v>
       </c>
@@ -6614,8 +7451,11 @@
         <f t="shared" si="2"/>
         <v>71.700000000000401</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="3">
+        <v>71.700000000000401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <v>136.9</v>
       </c>
@@ -6626,8 +7466,11 @@
         <f t="shared" si="2"/>
         <v>71.600000000000406</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="3">
+        <v>71.600000000000406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <v>138.80000000000001</v>
       </c>
@@ -6638,8 +7481,11 @@
         <f t="shared" ref="C195:C258" si="3">B195+3</f>
         <v>71.500000000000398</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="3">
+        <v>71.500000000000398</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <v>139.1</v>
       </c>
@@ -6650,8 +7496,11 @@
         <f t="shared" si="3"/>
         <v>71.400000000000404</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="3">
+        <v>71.400000000000404</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <v>140.1</v>
       </c>
@@ -6662,8 +7511,11 @@
         <f t="shared" si="3"/>
         <v>71.300000000000395</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="3">
+        <v>71.300000000000395</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>140.69999999999999</v>
       </c>
@@ -6674,8 +7526,11 @@
         <f t="shared" si="3"/>
         <v>71.200000000000401</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="3">
+        <v>71.200000000000401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <v>141.80000000000001</v>
       </c>
@@ -6686,8 +7541,11 @@
         <f t="shared" si="3"/>
         <v>71.100000000000406</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="3">
+        <v>71.100000000000406</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>142.80000000000001</v>
       </c>
@@ -6698,8 +7556,11 @@
         <f t="shared" si="3"/>
         <v>71.000000000000398</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="3">
+        <v>71.000000000000398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>143.4</v>
       </c>
@@ -6710,8 +7571,11 @@
         <f t="shared" si="3"/>
         <v>70.900000000000404</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="3">
+        <v>70.900000000000404</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>144.9</v>
       </c>
@@ -6722,8 +7586,11 @@
         <f t="shared" si="3"/>
         <v>70.800000000000395</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="3">
+        <v>70.800000000000395</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>145.30000000000001</v>
       </c>
@@ -6734,8 +7601,11 @@
         <f t="shared" si="3"/>
         <v>70.700000000000401</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="3">
+        <v>70.700000000000401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>146.19999999999999</v>
       </c>
@@ -6746,8 +7616,11 @@
         <f t="shared" si="3"/>
         <v>70.600000000000406</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="3">
+        <v>70.600000000000406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>147.1</v>
       </c>
@@ -6758,8 +7631,11 @@
         <f t="shared" si="3"/>
         <v>70.500000000000398</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="3">
+        <v>70.500000000000398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>148.69999999999999</v>
       </c>
@@ -6770,8 +7646,11 @@
         <f t="shared" si="3"/>
         <v>70.400000000000404</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="3">
+        <v>70.400000000000404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>149.4</v>
       </c>
@@ -6782,8 +7661,11 @@
         <f t="shared" si="3"/>
         <v>70.300000000000395</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="3">
+        <v>70.300000000000395</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>150</v>
       </c>
@@ -6794,8 +7676,11 @@
         <f t="shared" si="3"/>
         <v>70.200000000000401</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="3">
+        <v>70.200000000000401</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
         <v>150.9</v>
       </c>
@@ -6806,8 +7691,11 @@
         <f t="shared" si="3"/>
         <v>70.100000000000406</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="3">
+        <v>70.100000000000406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>152.80000000000001</v>
       </c>
@@ -6818,8 +7706,11 @@
         <f t="shared" si="3"/>
         <v>70.000000000000497</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="3">
+        <v>70.000000000000497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>153.80000000000001</v>
       </c>
@@ -6830,8 +7721,11 @@
         <f t="shared" si="3"/>
         <v>69.900000000000503</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="3">
+        <v>69.900000000000503</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>154.30000000000001</v>
       </c>
@@ -6842,8 +7736,11 @@
         <f t="shared" si="3"/>
         <v>69.800000000000495</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="3">
+        <v>69.800000000000495</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>155.30000000000001</v>
       </c>
@@ -6854,8 +7751,11 @@
         <f t="shared" si="3"/>
         <v>69.7000000000005</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="3">
+        <v>69.7000000000005</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>155.9</v>
       </c>
@@ -6866,8 +7766,11 @@
         <f t="shared" si="3"/>
         <v>69.600000000000506</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="3">
+        <v>69.600000000000506</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>156.80000000000001</v>
       </c>
@@ -6878,8 +7781,11 @@
         <f t="shared" si="3"/>
         <v>69.500000000000497</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="3">
+        <v>69.500000000000497</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>157.80000000000001</v>
       </c>
@@ -6890,8 +7796,11 @@
         <f t="shared" si="3"/>
         <v>69.400000000000503</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="3">
+        <v>69.400000000000503</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>158.9</v>
       </c>
@@ -6902,8 +7811,11 @@
         <f t="shared" si="3"/>
         <v>69.300000000000495</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="3">
+        <v>69.300000000000495</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>159.9</v>
       </c>
@@ -6914,8 +7826,11 @@
         <f t="shared" si="3"/>
         <v>69.2000000000005</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="3">
+        <v>69.2000000000005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>160.5</v>
       </c>
@@ -6926,8 +7841,11 @@
         <f t="shared" si="3"/>
         <v>69.100000000000506</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="3">
+        <v>69.100000000000506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>161.80000000000001</v>
       </c>
@@ -6938,8 +7856,11 @@
         <f t="shared" si="3"/>
         <v>69.000000000000497</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="3">
+        <v>69.000000000000497</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>162.80000000000001</v>
       </c>
@@ -6950,8 +7871,11 @@
         <f t="shared" si="3"/>
         <v>68.900000000000503</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="3">
+        <v>68.900000000000503</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>163.69999999999999</v>
       </c>
@@ -6962,8 +7886,11 @@
         <f t="shared" si="3"/>
         <v>68.800000000000495</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="3">
+        <v>68.800000000000495</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>164.8</v>
       </c>
@@ -6974,8 +7901,11 @@
         <f t="shared" si="3"/>
         <v>68.7000000000005</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="3">
+        <v>68.7000000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>165.4</v>
       </c>
@@ -6986,8 +7916,11 @@
         <f t="shared" si="3"/>
         <v>68.600000000000506</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="3">
+        <v>68.600000000000506</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>166.4</v>
       </c>
@@ -6998,8 +7931,11 @@
         <f t="shared" si="3"/>
         <v>68.500000000000497</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="3">
+        <v>68.500000000000497</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>166.9</v>
       </c>
@@ -7010,8 +7946,11 @@
         <f t="shared" si="3"/>
         <v>68.400000000000503</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="3">
+        <v>68.400000000000503</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>167.4</v>
       </c>
@@ -7022,8 +7961,11 @@
         <f t="shared" si="3"/>
         <v>68.300000000000594</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="3">
+        <v>68.300000000000594</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>168.4</v>
       </c>
@@ -7034,8 +7976,11 @@
         <f t="shared" si="3"/>
         <v>68.2000000000006</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="3">
+        <v>68.2000000000006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>169.3</v>
       </c>
@@ -7046,8 +7991,11 @@
         <f t="shared" si="3"/>
         <v>68.100000000000605</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="3">
+        <v>68.100000000000605</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>170</v>
       </c>
@@ -7058,8 +8006,11 @@
         <f t="shared" si="3"/>
         <v>68.000000000000597</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="3">
+        <v>68.000000000000597</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>170.9</v>
       </c>
@@ -7070,8 +8021,11 @@
         <f t="shared" si="3"/>
         <v>67.900000000000603</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="3">
+        <v>67.900000000000603</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>171.1</v>
       </c>
@@ -7082,8 +8036,11 @@
         <f t="shared" si="3"/>
         <v>67.800000000000594</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="3">
+        <v>67.800000000000594</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>172.3</v>
       </c>
@@ -7094,8 +8051,11 @@
         <f t="shared" si="3"/>
         <v>67.7000000000006</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="3">
+        <v>67.7000000000006</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>172.8</v>
       </c>
@@ -7106,8 +8066,11 @@
         <f t="shared" si="3"/>
         <v>67.600000000000605</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="3">
+        <v>67.600000000000605</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>173.8</v>
       </c>
@@ -7118,8 +8081,11 @@
         <f t="shared" si="3"/>
         <v>67.500000000000597</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="3">
+        <v>67.500000000000597</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>174.5</v>
       </c>
@@ -7130,8 +8096,11 @@
         <f t="shared" si="3"/>
         <v>67.400000000000603</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="3">
+        <v>67.400000000000603</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>175.2</v>
       </c>
@@ -7142,8 +8111,11 @@
         <f t="shared" si="3"/>
         <v>67.300000000000594</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="3">
+        <v>67.300000000000594</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>176</v>
       </c>
@@ -7154,8 +8126,11 @@
         <f t="shared" si="3"/>
         <v>67.2000000000006</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="3">
+        <v>67.2000000000006</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>177</v>
       </c>
@@ -7166,8 +8141,11 @@
         <f t="shared" si="3"/>
         <v>67.100000000000605</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="3">
+        <v>67.100000000000605</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>178.2</v>
       </c>
@@ -7178,8 +8156,11 @@
         <f t="shared" si="3"/>
         <v>67.000000000000597</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="3">
+        <v>67.000000000000597</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>179.3</v>
       </c>
@@ -7190,8 +8171,11 @@
         <f t="shared" si="3"/>
         <v>66.900000000000603</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="3">
+        <v>66.900000000000603</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <v>180.2</v>
       </c>
@@ -7202,8 +8186,11 @@
         <f t="shared" si="3"/>
         <v>66.800000000000608</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="3">
+        <v>66.800000000000608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>181.2</v>
       </c>
@@ -7214,8 +8201,11 @@
         <f t="shared" si="3"/>
         <v>66.7000000000006</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="3">
+        <v>66.7000000000006</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <v>183.1</v>
       </c>
@@ -7226,8 +8216,11 @@
         <f t="shared" si="3"/>
         <v>66.600000000000591</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="3">
+        <v>66.600000000000591</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>184.3</v>
       </c>
@@ -7238,8 +8231,11 @@
         <f t="shared" si="3"/>
         <v>66.500000000000597</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="3">
+        <v>66.500000000000597</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <v>185.1</v>
       </c>
@@ -7250,8 +8246,11 @@
         <f t="shared" si="3"/>
         <v>66.400000000000702</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="3">
+        <v>66.400000000000702</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <v>186.2</v>
       </c>
@@ -7262,8 +8261,11 @@
         <f t="shared" si="3"/>
         <v>66.300000000000693</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="3">
+        <v>66.300000000000693</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <v>187.8</v>
       </c>
@@ -7274,8 +8276,11 @@
         <f t="shared" si="3"/>
         <v>66.200000000000699</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="3">
+        <v>66.200000000000699</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>188.8</v>
       </c>
@@ -7286,8 +8291,11 @@
         <f t="shared" si="3"/>
         <v>66.100000000000705</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="3">
+        <v>66.100000000000705</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>190</v>
       </c>
@@ -7298,8 +8306,11 @@
         <f t="shared" si="3"/>
         <v>66.000000000000711</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="3">
+        <v>66.000000000000711</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>191.2</v>
       </c>
@@ -7310,8 +8321,11 @@
         <f t="shared" si="3"/>
         <v>65.900000000000702</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="3">
+        <v>65.900000000000702</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>192.8</v>
       </c>
@@ -7322,8 +8336,11 @@
         <f t="shared" si="3"/>
         <v>65.800000000000693</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="3">
+        <v>65.800000000000693</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>193.8</v>
       </c>
@@ -7334,8 +8351,11 @@
         <f t="shared" si="3"/>
         <v>65.700000000000699</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="3">
+        <v>65.700000000000699</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>194.8</v>
       </c>
@@ -7346,8 +8366,11 @@
         <f t="shared" si="3"/>
         <v>65.600000000000705</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="3">
+        <v>65.600000000000705</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>195.8</v>
       </c>
@@ -7358,8 +8381,11 @@
         <f t="shared" si="3"/>
         <v>65.500000000000711</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="3">
+        <v>65.500000000000711</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>196.8</v>
       </c>
@@ -7370,8 +8396,11 @@
         <f t="shared" si="3"/>
         <v>65.400000000000702</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="3">
+        <v>65.400000000000702</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>198.1</v>
       </c>
@@ -7382,8 +8411,11 @@
         <f t="shared" si="3"/>
         <v>65.300000000000693</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="3">
+        <v>65.300000000000693</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>198.3</v>
       </c>
@@ -7394,8 +8426,11 @@
         <f t="shared" si="3"/>
         <v>65.200000000000699</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="3">
+        <v>65.200000000000699</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <v>199.5</v>
       </c>
@@ -7403,11 +8438,14 @@
         <v>62.100000000000698</v>
       </c>
       <c r="C259" s="5">
-        <f t="shared" ref="C259:C322" si="4">B259+3</f>
+        <f t="shared" ref="C259:C313" si="4">B259+3</f>
         <v>65.100000000000705</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="3">
+        <v>65.100000000000705</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <v>200</v>
       </c>
@@ -7418,8 +8456,11 @@
         <f t="shared" si="4"/>
         <v>65.000000000000711</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="3">
+        <v>65.000000000000711</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="10">
         <v>201.1</v>
       </c>
@@ -7430,8 +8471,11 @@
         <f t="shared" si="4"/>
         <v>64.900000000000702</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="3">
+        <v>64.900000000000702</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
         <v>201.4</v>
       </c>
@@ -7442,8 +8486,11 @@
         <f t="shared" si="4"/>
         <v>64.800000000000807</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="3">
+        <v>64.800000000000807</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="10">
         <v>202.1</v>
       </c>
@@ -7454,8 +8501,11 @@
         <f t="shared" si="4"/>
         <v>64.700000000000799</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="3">
+        <v>64.700000000000799</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <v>203</v>
       </c>
@@ -7466,8 +8516,11 @@
         <f t="shared" si="4"/>
         <v>64.60000000000079</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="3">
+        <v>64.60000000000079</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <v>203.6</v>
       </c>
@@ -7478,8 +8531,11 @@
         <f t="shared" si="4"/>
         <v>64.500000000000796</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="3">
+        <v>64.500000000000796</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <v>204.6</v>
       </c>
@@ -7490,8 +8546,11 @@
         <f t="shared" si="4"/>
         <v>64.400000000000801</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="3">
+        <v>64.400000000000801</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <v>205.5</v>
       </c>
@@ -7502,8 +8561,11 @@
         <f t="shared" si="4"/>
         <v>64.300000000000807</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="3">
+        <v>64.300000000000807</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <v>206.4</v>
       </c>
@@ -7514,8 +8576,11 @@
         <f t="shared" si="4"/>
         <v>64.200000000000799</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="3">
+        <v>64.200000000000799</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <v>207.4</v>
       </c>
@@ -7526,8 +8591,11 @@
         <f t="shared" si="4"/>
         <v>64.10000000000079</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="3">
+        <v>64.10000000000079</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <v>209</v>
       </c>
@@ -7538,8 +8606,11 @@
         <f t="shared" si="4"/>
         <v>64.000000000000796</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="3">
+        <v>64.000000000000796</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <v>210.2</v>
       </c>
@@ -7550,8 +8621,11 @@
         <f t="shared" si="4"/>
         <v>63.900000000000801</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="3">
+        <v>63.900000000000801</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <v>211.7</v>
       </c>
@@ -7562,8 +8636,11 @@
         <f t="shared" si="4"/>
         <v>63.8000000000008</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="3">
+        <v>63.8000000000008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
         <v>212.9</v>
       </c>
@@ -7574,8 +8651,11 @@
         <f t="shared" si="4"/>
         <v>63.700000000000799</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="3">
+        <v>63.700000000000799</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
         <v>214.4</v>
       </c>
@@ -7586,8 +8666,11 @@
         <f t="shared" si="4"/>
         <v>63.600000000000797</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="3">
+        <v>63.600000000000797</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <v>216</v>
       </c>
@@ -7598,8 +8681,11 @@
         <f t="shared" si="4"/>
         <v>63.500000000000803</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="3">
+        <v>63.500000000000803</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
         <v>217.6</v>
       </c>
@@ -7610,8 +8696,11 @@
         <f t="shared" si="4"/>
         <v>63.400000000000801</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="3">
+        <v>63.400000000000801</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
         <v>219.3</v>
       </c>
@@ -7622,8 +8711,11 @@
         <f t="shared" si="4"/>
         <v>63.3000000000008</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="3">
+        <v>63.3000000000008</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
         <v>220.9</v>
       </c>
@@ -7634,8 +8726,11 @@
         <f t="shared" si="4"/>
         <v>63.200000000000799</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="3">
+        <v>63.200000000000799</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <v>222.3</v>
       </c>
@@ -7646,8 +8741,11 @@
         <f t="shared" si="4"/>
         <v>63.100000000000797</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="3">
+        <v>63.100000000000797</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <v>223.9</v>
       </c>
@@ -7658,8 +8756,11 @@
         <f t="shared" si="4"/>
         <v>63.000000000000902</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="3">
+        <v>63.000000000000902</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>224.8</v>
       </c>
@@ -7670,8 +8771,11 @@
         <f t="shared" si="4"/>
         <v>62.900000000000901</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D281" s="3">
+        <v>62.900000000000901</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>225.9</v>
       </c>
@@ -7682,8 +8786,11 @@
         <f t="shared" si="4"/>
         <v>62.8000000000009</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D282" s="3">
+        <v>62.8000000000009</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <v>226.5</v>
       </c>
@@ -7694,8 +8801,11 @@
         <f t="shared" si="4"/>
         <v>62.700000000000898</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D283" s="3">
+        <v>62.700000000000898</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <v>227.6</v>
       </c>
@@ -7706,8 +8816,11 @@
         <f t="shared" si="4"/>
         <v>62.600000000000897</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D284" s="3">
+        <v>62.600000000000897</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <v>228.3</v>
       </c>
@@ -7718,8 +8831,11 @@
         <f t="shared" si="4"/>
         <v>62.500000000000902</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D285" s="3">
+        <v>62.500000000000902</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <v>229.4</v>
       </c>
@@ -7730,8 +8846,11 @@
         <f t="shared" si="4"/>
         <v>62.400000000000901</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D286" s="3">
+        <v>62.400000000000901</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <v>230.4</v>
       </c>
@@ -7742,8 +8861,11 @@
         <f t="shared" si="4"/>
         <v>62.3000000000009</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D287" s="3">
+        <v>62.3000000000009</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <v>231.5</v>
       </c>
@@ -7754,8 +8876,11 @@
         <f t="shared" si="4"/>
         <v>62.200000000000898</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D288" s="3">
+        <v>62.200000000000898</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="10">
         <v>233.1</v>
       </c>
@@ -7766,8 +8891,11 @@
         <f t="shared" si="4"/>
         <v>62.100000000000897</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D289" s="3">
+        <v>62.100000000000897</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
         <v>234</v>
       </c>
@@ -7778,8 +8906,11 @@
         <f t="shared" si="4"/>
         <v>62.000000000000902</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D290" s="3">
+        <v>62.000000000000902</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="10">
         <v>235.8</v>
       </c>
@@ -7790,8 +8921,11 @@
         <f t="shared" si="4"/>
         <v>61.900000000000901</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D291" s="3">
+        <v>61.900000000000901</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="10">
         <v>236.8</v>
       </c>
@@ -7802,8 +8936,11 @@
         <f t="shared" si="4"/>
         <v>61.8000000000009</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D292" s="3">
+        <v>61.8000000000009</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
         <v>237.8</v>
       </c>
@@ -7814,8 +8951,11 @@
         <f t="shared" si="4"/>
         <v>61.700000000000898</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D293" s="3">
+        <v>61.700000000000898</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="10">
         <v>239.4</v>
       </c>
@@ -7826,8 +8966,11 @@
         <f t="shared" si="4"/>
         <v>61.600000000000897</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D294" s="3">
+        <v>61.600000000000897</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="10">
         <v>240.6</v>
       </c>
@@ -7838,8 +8981,11 @@
         <f t="shared" si="4"/>
         <v>61.500000000000902</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D295" s="3">
+        <v>61.500000000000902</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <v>242.1</v>
       </c>
@@ -7850,8 +8996,11 @@
         <f t="shared" si="4"/>
         <v>61.400000000000901</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D296" s="3">
+        <v>61.400000000000901</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <v>243.2</v>
       </c>
@@ -7862,8 +9011,11 @@
         <f t="shared" si="4"/>
         <v>61.300000000000999</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D297" s="3">
+        <v>61.300000000000999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <v>244.9</v>
       </c>
@@ -7874,8 +9026,11 @@
         <f t="shared" si="4"/>
         <v>61.200000000000998</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D298" s="3">
+        <v>61.200000000000998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <v>246.4</v>
       </c>
@@ -7886,8 +9041,11 @@
         <f t="shared" si="4"/>
         <v>61.100000000001003</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D299" s="3">
+        <v>61.100000000001003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <v>248.8</v>
       </c>
@@ -7898,8 +9056,11 @@
         <f t="shared" si="4"/>
         <v>61.000000000001002</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D300" s="3">
+        <v>61.000000000001002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <v>250.7</v>
       </c>
@@ -7910,8 +9071,11 @@
         <f t="shared" si="4"/>
         <v>60.900000000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D301" s="3">
+        <v>60.900000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <v>252.6</v>
       </c>
@@ -7922,8 +9086,11 @@
         <f t="shared" si="4"/>
         <v>60.800000000000999</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D302" s="3">
+        <v>60.800000000000999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="10">
         <v>256.2</v>
       </c>
@@ -7934,8 +9101,11 @@
         <f t="shared" si="4"/>
         <v>60.700000000000998</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D303" s="3">
+        <v>60.700000000000998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="10">
         <v>258.8</v>
       </c>
@@ -7946,8 +9116,11 @@
         <f t="shared" si="4"/>
         <v>60.600000000001003</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D304" s="3">
+        <v>60.600000000001003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
         <v>262.5</v>
       </c>
@@ -7958,8 +9131,11 @@
         <f t="shared" si="4"/>
         <v>60.500000000001002</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D305" s="3">
+        <v>60.500000000001002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="10">
         <v>266.2</v>
       </c>
@@ -7970,1601 +9146,2903 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D306" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="10">
         <v>270.2</v>
       </c>
       <c r="B307" s="8">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="C307" s="5">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.9</v>
+      </c>
+      <c r="D307" s="3">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="10">
         <v>275.39999999999998</v>
       </c>
       <c r="B308" s="8">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
       <c r="C308" s="5">
         <f t="shared" si="4"/>
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.8</v>
+      </c>
+      <c r="D308" s="3">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="10">
         <v>281.10000000000002</v>
       </c>
       <c r="B309" s="8">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C309" s="5">
         <f t="shared" si="4"/>
-        <v>59.8</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.6</v>
+      </c>
+      <c r="D309" s="3">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="10">
         <v>283.8</v>
       </c>
       <c r="B310" s="8">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="C310" s="5">
         <f t="shared" si="4"/>
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.6</v>
+      </c>
+      <c r="D310" s="3">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
         <v>290.8</v>
       </c>
       <c r="B311" s="8">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="C311" s="5">
         <f t="shared" si="4"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.3</v>
+      </c>
+      <c r="D311" s="3">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="10">
         <v>306.8</v>
       </c>
       <c r="B312" s="8">
-        <v>56.4</v>
+        <v>55.8</v>
       </c>
       <c r="C312" s="5">
         <f t="shared" si="4"/>
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58.8</v>
+      </c>
+      <c r="D312" s="3">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="10">
         <v>313.2</v>
       </c>
       <c r="B313" s="8">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="C313" s="5">
         <f t="shared" si="4"/>
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58.5</v>
+      </c>
+      <c r="D313" s="3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="10">
         <v>318.39999999999998</v>
       </c>
       <c r="B314" s="8">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C314" s="5">
-        <f t="shared" si="4"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B314+3</f>
+        <v>58.5</v>
+      </c>
+      <c r="D314" s="3">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="10">
         <v>327.39999999999998</v>
       </c>
       <c r="B315" s="8">
-        <v>56.3</v>
+        <v>56.5</v>
       </c>
       <c r="C315" s="5">
-        <f t="shared" si="4"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+        <f>B315+3-1.3</f>
+        <v>58.2</v>
+      </c>
+      <c r="D315" s="3">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
         <v>335.1</v>
       </c>
       <c r="B316" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="C316" s="5">
+        <f t="shared" ref="C316:C395" si="5">B316+3-1.3</f>
+        <v>58.2</v>
+      </c>
+      <c r="D316" s="3">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="10">
+        <v>338</v>
+      </c>
+      <c r="B317" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="C317" s="5">
+        <f t="shared" si="5"/>
+        <v>58.2</v>
+      </c>
+      <c r="D317" s="3">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="10">
+        <v>340</v>
+      </c>
+      <c r="B318" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="C318" s="5">
+        <f t="shared" si="5"/>
+        <v>58.2</v>
+      </c>
+      <c r="D318" s="3">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="10">
+        <v>342.4</v>
+      </c>
+      <c r="B319" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="C319" s="5">
+        <f t="shared" si="5"/>
+        <v>58.2</v>
+      </c>
+      <c r="D319" s="3">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="10">
+        <v>351.2</v>
+      </c>
+      <c r="B320" s="8">
         <v>56.3</v>
       </c>
-      <c r="C316" s="5">
-        <f t="shared" si="4"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="10">
-        <v>342.4</v>
-      </c>
-      <c r="B317" s="8">
-        <v>56.3</v>
-      </c>
-      <c r="C317" s="5">
-        <f t="shared" si="4"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="10">
-        <v>351.2</v>
-      </c>
-      <c r="B318" s="8">
-        <v>56.3</v>
-      </c>
-      <c r="C318" s="5">
-        <f t="shared" si="4"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="10">
+      <c r="C320" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D320" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="10">
         <v>356.4</v>
-      </c>
-      <c r="B319" s="8">
-        <v>56.2</v>
-      </c>
-      <c r="C319" s="5">
-        <f t="shared" si="4"/>
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="10">
-        <v>375.7</v>
-      </c>
-      <c r="B320" s="8">
-        <v>56.2</v>
-      </c>
-      <c r="C320" s="5">
-        <f t="shared" si="4"/>
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="10">
-        <v>383.3</v>
       </c>
       <c r="B321" s="8">
         <v>56.2</v>
       </c>
       <c r="C321" s="5">
-        <f t="shared" si="4"/>
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D321" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="10">
+        <v>360</v>
+      </c>
+      <c r="B322" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C322" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D322" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="10">
+        <v>364</v>
+      </c>
+      <c r="B323" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C323" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D323" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="10">
+        <v>368</v>
+      </c>
+      <c r="B324" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C324" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D324" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="10">
+        <v>372</v>
+      </c>
+      <c r="B325" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C325" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D325" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="10">
+        <v>375.7</v>
+      </c>
+      <c r="B326" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C326" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D326" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="10">
+        <v>383.3</v>
+      </c>
+      <c r="B327" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C327" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D327" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="10">
+        <v>385</v>
+      </c>
+      <c r="B328" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C328" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D328" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="10">
+        <v>391</v>
+      </c>
+      <c r="B329" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C329" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D329" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="10">
+        <v>394</v>
+      </c>
+      <c r="B330" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C330" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D330" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="10">
         <v>397.1</v>
       </c>
-      <c r="B322" s="8">
+      <c r="B331" s="8">
         <v>56.1</v>
       </c>
-      <c r="C322" s="5">
-        <f t="shared" si="4"/>
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="10">
+      <c r="C331" s="5">
+        <f t="shared" si="5"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D331" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="10">
         <v>400.1</v>
       </c>
-      <c r="B323" s="8">
+      <c r="B332" s="8">
         <v>56.1</v>
       </c>
-      <c r="C323" s="5">
-        <f t="shared" ref="C323:C350" si="5">B323+3</f>
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="10">
+      <c r="C332" s="5">
+        <f t="shared" si="5"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D332" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="10">
         <v>407.8</v>
-      </c>
-      <c r="B324" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C324" s="5">
-        <f>B324+3</f>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="10">
-        <v>414.5</v>
-      </c>
-      <c r="B325" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C325" s="5">
-        <f t="shared" ref="C325:C335" si="6">B325+3</f>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="10">
-        <v>421.8</v>
-      </c>
-      <c r="B326" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C326" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="10">
-        <v>431.1</v>
-      </c>
-      <c r="B327" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C327" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="10">
-        <v>441.9</v>
-      </c>
-      <c r="B328" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C328" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="10">
-        <v>449.1</v>
-      </c>
-      <c r="B329" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C329" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="10">
-        <v>457.4</v>
-      </c>
-      <c r="B330" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C330" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="10">
-        <v>464.7</v>
-      </c>
-      <c r="B331" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C331" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="10">
-        <v>469.4</v>
-      </c>
-      <c r="B332" s="8">
-        <v>56.0571428571429</v>
-      </c>
-      <c r="C332" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="10">
-        <v>479.4</v>
       </c>
       <c r="B333" s="8">
         <v>56.0571428571429</v>
       </c>
       <c r="C333" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D333" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="10">
-        <v>487</v>
+        <v>414.5</v>
       </c>
       <c r="B334" s="8">
         <v>56.0571428571429</v>
       </c>
       <c r="C334" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D334" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="10">
-        <v>496.6</v>
+        <v>421.8</v>
       </c>
       <c r="B335" s="8">
         <v>56.0571428571429</v>
       </c>
       <c r="C335" s="5">
-        <f t="shared" si="6"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D335" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
-        <v>504.4</v>
+        <v>431.1</v>
       </c>
       <c r="B336" s="8">
         <v>56.0571428571429</v>
       </c>
       <c r="C336" s="5">
         <f t="shared" si="5"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D336" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="10">
-        <v>511.9</v>
+        <v>441.9</v>
       </c>
       <c r="B337" s="8">
         <v>56.0571428571429</v>
       </c>
       <c r="C337" s="5">
         <f t="shared" si="5"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D337" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
-        <v>530.70000000000005</v>
+        <v>449.1</v>
       </c>
       <c r="B338" s="8">
         <v>56.0571428571429</v>
       </c>
       <c r="C338" s="5">
         <f t="shared" si="5"/>
-        <v>59.0571428571429</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D338" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="10">
-        <v>546.1</v>
+        <v>457.4</v>
       </c>
       <c r="B339" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C339" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D339" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="10">
-        <v>561.5</v>
+        <v>460</v>
       </c>
       <c r="B340" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C340" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D340" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="10">
-        <v>575.1</v>
+        <v>464.7</v>
       </c>
       <c r="B341" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C341" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D341" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="10">
-        <v>590.1</v>
+        <v>467</v>
       </c>
       <c r="B342" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C342" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D342" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
-        <v>603.4</v>
+        <v>469.4</v>
       </c>
       <c r="B343" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C343" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D343" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
-        <v>616.1</v>
+        <v>473</v>
       </c>
       <c r="B344" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C344" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D344" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="10">
-        <v>626.4</v>
+        <v>476</v>
       </c>
       <c r="B345" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C345" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D345" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="10">
-        <v>640</v>
+        <v>479.4</v>
       </c>
       <c r="B346" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C346" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D346" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="10">
-        <v>654.70000000000005</v>
+        <v>482</v>
       </c>
       <c r="B347" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C347" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D347" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="10">
-        <v>666.4</v>
+        <v>485</v>
       </c>
       <c r="B348" s="8">
-        <v>56.6</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C348" s="5">
         <f t="shared" si="5"/>
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D348" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="10">
-        <v>677.8</v>
+        <v>487</v>
       </c>
       <c r="B349" s="8">
-        <v>56.4</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C349" s="5">
         <f t="shared" si="5"/>
-        <v>59.4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D349" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="10">
-        <v>689.9</v>
+        <v>496.6</v>
       </c>
       <c r="B350" s="8">
-        <v>56.2</v>
+        <v>56.0571428571429</v>
       </c>
       <c r="C350" s="5">
         <f t="shared" si="5"/>
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D350" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="10">
+        <v>504.4</v>
+      </c>
+      <c r="B351" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C351" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D351" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="10">
+        <v>511.9</v>
+      </c>
+      <c r="B352" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C352" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D352" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="10">
+        <v>514</v>
+      </c>
+      <c r="B353" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C353" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D353" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="10">
+        <v>518</v>
+      </c>
+      <c r="B354" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C354" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D354" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="10">
+        <v>522</v>
+      </c>
+      <c r="B355" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C355" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D355" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="10">
+        <v>527</v>
+      </c>
+      <c r="B356" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C356" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D356" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="10">
+        <v>530.70000000000005</v>
+      </c>
+      <c r="B357" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C357" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D357" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="10">
+        <v>534</v>
+      </c>
+      <c r="B358" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C358" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D358" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="10">
+        <v>537</v>
+      </c>
+      <c r="B359" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C359" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D359" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="10">
+        <v>540</v>
+      </c>
+      <c r="B360" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C360" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D360" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="10">
+        <v>543</v>
+      </c>
+      <c r="B361" s="8">
+        <v>56.0571428571429</v>
+      </c>
+      <c r="C361" s="5">
+        <f t="shared" si="5"/>
+        <v>57.757142857142902</v>
+      </c>
+      <c r="D361" s="3">
+        <v>57.757142857142902</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="10">
+        <v>546.1</v>
+      </c>
+      <c r="B362" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C362" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D362" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="10">
+        <v>549</v>
+      </c>
+      <c r="B363" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C363" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D363" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="10">
+        <v>551</v>
+      </c>
+      <c r="B364" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C364" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D364" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="10">
+        <v>555</v>
+      </c>
+      <c r="B365" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C365" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D365" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="10">
+        <v>558</v>
+      </c>
+      <c r="B366" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C366" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D366" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="10">
+        <v>561.5</v>
+      </c>
+      <c r="B367" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C367" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D367" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="10">
+        <v>564</v>
+      </c>
+      <c r="B368" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C368" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D368" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="10">
+        <v>568</v>
+      </c>
+      <c r="B369" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C369" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D369" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="10">
+        <v>570</v>
+      </c>
+      <c r="B370" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C370" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D370" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="10">
+        <v>575.1</v>
+      </c>
+      <c r="B371" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C371" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D371" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="10">
+        <v>578</v>
+      </c>
+      <c r="B372" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C372" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D372" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="10">
+        <v>582</v>
+      </c>
+      <c r="B373" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C373" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D373" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="10">
+        <v>587</v>
+      </c>
+      <c r="B374" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C374" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D374" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="10">
+        <v>590.1</v>
+      </c>
+      <c r="B375" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C375" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D375" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="10">
+        <v>593</v>
+      </c>
+      <c r="B376" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C376" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D376" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="10">
+        <v>596</v>
+      </c>
+      <c r="B377" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C377" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D377" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="10">
+        <v>600</v>
+      </c>
+      <c r="B378" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C378" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D378" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="10">
+        <v>603.4</v>
+      </c>
+      <c r="B379" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C379" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D379" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="10">
+        <v>616.1</v>
+      </c>
+      <c r="B380" s="8">
+        <v>56.3</v>
+      </c>
+      <c r="C380" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D380" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="10">
+        <v>626.4</v>
+      </c>
+      <c r="B381" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C381" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D381" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="10">
+        <v>630</v>
+      </c>
+      <c r="B382" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C382" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D382" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="10">
+        <v>633</v>
+      </c>
+      <c r="B383" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C383" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D383" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="10">
+        <v>637</v>
+      </c>
+      <c r="B384" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C384" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D384" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="10">
+        <v>640</v>
+      </c>
+      <c r="B385" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C385" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D385" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="10">
+        <v>643</v>
+      </c>
+      <c r="B386" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C386" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D386" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="10">
+        <v>647</v>
+      </c>
+      <c r="B387" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C387" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D387" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="10">
+        <v>650</v>
+      </c>
+      <c r="B388" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C388" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D388" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="10">
+        <v>654.70000000000005</v>
+      </c>
+      <c r="B389" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C389" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D389" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="10">
+        <v>658</v>
+      </c>
+      <c r="B390" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C390" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D390" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="10">
+        <v>661</v>
+      </c>
+      <c r="B391" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C391" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D391" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="10">
+        <v>666.4</v>
+      </c>
+      <c r="B392" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C392" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D392" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="10">
+        <v>677.8</v>
+      </c>
+      <c r="B393" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C393" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D393" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="10">
+        <v>689.9</v>
+      </c>
+      <c r="B394" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C394" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D394" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="10">
         <v>700</v>
       </c>
-      <c r="B351" s="14">
+      <c r="B395" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C395" s="5">
+        <f t="shared" si="5"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D395" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="10">
+        <v>710</v>
+      </c>
+      <c r="B396" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C396" s="5">
+        <f t="shared" ref="C396:C414" si="6">B396+3-1.3</f>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D396" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="10">
+        <v>720</v>
+      </c>
+      <c r="B397" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C397" s="5">
+        <f t="shared" si="6"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D397" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="10">
+        <v>730</v>
+      </c>
+      <c r="B398" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C398" s="5">
+        <f t="shared" si="6"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D398" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="10">
+        <v>740</v>
+      </c>
+      <c r="B399" s="8">
+        <v>56.2</v>
+      </c>
+      <c r="C399" s="5">
+        <f t="shared" si="6"/>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="D399" s="3">
+        <v>57.900000000000006</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="10">
+        <v>750</v>
+      </c>
+      <c r="B400" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C400" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D400" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="10">
+        <v>760</v>
+      </c>
+      <c r="B401" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C401" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D401" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="10">
+        <v>770</v>
+      </c>
+      <c r="B402" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C402" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D402" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="10">
+        <v>780</v>
+      </c>
+      <c r="B403" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C403" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D403" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="10">
+        <v>790</v>
+      </c>
+      <c r="B404" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C404" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D404" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="10">
+        <v>800</v>
+      </c>
+      <c r="B405" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C405" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D405" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="10">
+        <v>810</v>
+      </c>
+      <c r="B406" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C406" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D406" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="10">
+        <v>820</v>
+      </c>
+      <c r="B407" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C407" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D407" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="10">
+        <v>830</v>
+      </c>
+      <c r="B408" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C408" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D408" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="10">
+        <v>840</v>
+      </c>
+      <c r="B409" s="8">
+        <v>56.1</v>
+      </c>
+      <c r="C409" s="5">
+        <f t="shared" si="6"/>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D409" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="10">
+        <v>850</v>
+      </c>
+      <c r="B410" s="8">
+        <v>56</v>
+      </c>
+      <c r="C410" s="5">
+        <f t="shared" si="6"/>
+        <v>57.7</v>
+      </c>
+      <c r="D410" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="10">
+        <v>860</v>
+      </c>
+      <c r="B411" s="8">
+        <v>56</v>
+      </c>
+      <c r="C411" s="5">
+        <f t="shared" si="6"/>
+        <v>57.7</v>
+      </c>
+      <c r="D411" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="10">
+        <v>870</v>
+      </c>
+      <c r="B412" s="8">
+        <v>56</v>
+      </c>
+      <c r="C412" s="5">
+        <f t="shared" si="6"/>
+        <v>57.7</v>
+      </c>
+      <c r="D412" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="10">
+        <v>880</v>
+      </c>
+      <c r="B413" s="8">
+        <v>56</v>
+      </c>
+      <c r="C413" s="5">
+        <f t="shared" si="6"/>
+        <v>57.7</v>
+      </c>
+      <c r="D413" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="10">
+        <v>890</v>
+      </c>
+      <c r="B414" s="8">
+        <v>56</v>
+      </c>
+      <c r="C414" s="5">
+        <f t="shared" si="6"/>
+        <v>57.7</v>
+      </c>
+      <c r="D414" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="10">
+        <v>900</v>
+      </c>
+      <c r="B415" s="14">
         <v>56.8</v>
       </c>
-      <c r="C351" s="5">
-        <f>B351+2.4</f>
-        <v>59.199999999999996</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="10">
-        <v>710</v>
-      </c>
-      <c r="B352" s="14">
+      <c r="C415" s="5">
+        <f>B415+2.4-1.3</f>
+        <v>57.9</v>
+      </c>
+      <c r="D415" s="3">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="10">
+        <v>910</v>
+      </c>
+      <c r="B416" s="14">
         <v>56.7</v>
       </c>
-      <c r="C352" s="5">
-        <f t="shared" ref="C352:C415" si="7">B352+2.4</f>
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="10">
-        <v>720</v>
-      </c>
-      <c r="B353" s="14">
+      <c r="C416" s="5">
+        <f t="shared" ref="C416:C479" si="7">B416+2.4-1.3</f>
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D416" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="10">
+        <v>920</v>
+      </c>
+      <c r="B417" s="14">
         <v>56.7</v>
       </c>
-      <c r="C353" s="5">
+      <c r="C417" s="5">
         <f t="shared" si="7"/>
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="10">
-        <v>730</v>
-      </c>
-      <c r="B354" s="14">
+        <v>57.800000000000004</v>
+      </c>
+      <c r="D417" s="3">
+        <v>57.800000000000004</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="10">
+        <v>930</v>
+      </c>
+      <c r="B418" s="14">
         <v>56.6</v>
       </c>
-      <c r="C354" s="5">
+      <c r="C418" s="5">
         <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="10">
-        <v>740</v>
-      </c>
-      <c r="B355" s="14">
+        <v>57.7</v>
+      </c>
+      <c r="D418" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="10">
+        <v>940</v>
+      </c>
+      <c r="B419" s="14">
         <v>56.6</v>
       </c>
-      <c r="C355" s="5">
+      <c r="C419" s="5">
         <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="10">
-        <v>750</v>
-      </c>
-      <c r="B356" s="14">
+        <v>57.7</v>
+      </c>
+      <c r="D419" s="3">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="10">
+        <v>950</v>
+      </c>
+      <c r="B420" s="14">
         <v>56.5</v>
       </c>
-      <c r="C356" s="5">
-        <f t="shared" si="7"/>
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="10">
-        <v>760</v>
-      </c>
-      <c r="B357" s="14">
-        <v>56.4</v>
-      </c>
-      <c r="C357" s="5">
-        <f t="shared" si="7"/>
-        <v>58.8</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="10">
-        <v>770</v>
-      </c>
-      <c r="B358" s="14">
-        <v>56.3</v>
-      </c>
-      <c r="C358" s="5">
-        <f t="shared" si="7"/>
-        <v>58.699999999999996</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="10">
-        <v>780</v>
-      </c>
-      <c r="B359" s="14">
-        <v>56.3</v>
-      </c>
-      <c r="C359" s="5">
-        <f t="shared" si="7"/>
-        <v>58.699999999999996</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="10">
-        <v>790</v>
-      </c>
-      <c r="B360" s="14">
-        <v>56.2</v>
-      </c>
-      <c r="C360" s="5">
-        <f t="shared" si="7"/>
-        <v>58.6</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="10">
-        <v>800</v>
-      </c>
-      <c r="B361" s="14">
-        <v>56.1</v>
-      </c>
-      <c r="C361" s="5">
-        <f t="shared" si="7"/>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="10">
-        <v>810</v>
-      </c>
-      <c r="B362" s="14">
-        <v>56</v>
-      </c>
-      <c r="C362" s="5">
-        <f t="shared" si="7"/>
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="10">
-        <v>820</v>
-      </c>
-      <c r="B363" s="14">
-        <v>55.9</v>
-      </c>
-      <c r="C363" s="5">
-        <f t="shared" si="7"/>
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="10">
-        <v>830</v>
-      </c>
-      <c r="B364" s="14">
-        <v>55.8</v>
-      </c>
-      <c r="C364" s="5">
-        <f t="shared" si="7"/>
-        <v>58.199999999999996</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="10">
-        <v>840</v>
-      </c>
-      <c r="B365" s="14">
-        <v>55.7</v>
-      </c>
-      <c r="C365" s="5">
-        <f t="shared" si="7"/>
-        <v>58.1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="10">
-        <v>850</v>
-      </c>
-      <c r="B366" s="14">
-        <v>55.6</v>
-      </c>
-      <c r="C366" s="5">
-        <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="10">
-        <v>860</v>
-      </c>
-      <c r="B367" s="14">
-        <v>55.5</v>
-      </c>
-      <c r="C367" s="5">
-        <f t="shared" si="7"/>
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="10">
-        <v>870</v>
-      </c>
-      <c r="B368" s="14">
-        <v>55.4</v>
-      </c>
-      <c r="C368" s="5">
-        <f t="shared" si="7"/>
-        <v>57.8</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="10">
-        <v>880</v>
-      </c>
-      <c r="B369" s="14">
-        <v>55.2</v>
-      </c>
-      <c r="C369" s="5">
+      <c r="C420" s="5">
         <f t="shared" si="7"/>
         <v>57.6</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="10">
-        <v>890</v>
-      </c>
-      <c r="B370" s="14">
-        <v>55.1</v>
-      </c>
-      <c r="C370" s="5">
+      <c r="D420" s="3">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="10">
+        <v>960</v>
+      </c>
+      <c r="B421" s="14">
+        <v>56.4</v>
+      </c>
+      <c r="C421" s="5">
         <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="10">
-        <v>900</v>
-      </c>
-      <c r="B371" s="14">
-        <v>55</v>
-      </c>
-      <c r="C371" s="5">
+      <c r="D421" s="3">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="10">
+        <v>970</v>
+      </c>
+      <c r="B422" s="14">
+        <v>56.3</v>
+      </c>
+      <c r="C422" s="5">
         <f t="shared" si="7"/>
         <v>57.4</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="10">
-        <v>910</v>
-      </c>
-      <c r="B372" s="14">
-        <v>54.8</v>
-      </c>
-      <c r="C372" s="5">
+      <c r="D422" s="3">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="10">
+        <v>980</v>
+      </c>
+      <c r="B423" s="14">
+        <v>56.3</v>
+      </c>
+      <c r="C423" s="5">
         <f t="shared" si="7"/>
-        <v>57.199999999999996</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="10">
-        <v>920</v>
-      </c>
-      <c r="B373" s="14">
-        <v>54.6</v>
-      </c>
-      <c r="C373" s="5">
+        <v>57.4</v>
+      </c>
+      <c r="D423" s="3">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="10">
+        <v>990</v>
+      </c>
+      <c r="B424" s="14">
+        <v>56.2</v>
+      </c>
+      <c r="C424" s="5">
+        <f t="shared" si="7"/>
+        <v>57.300000000000004</v>
+      </c>
+      <c r="D424" s="3">
+        <v>57.300000000000004</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="10">
+        <v>1000</v>
+      </c>
+      <c r="B425" s="14">
+        <v>56.1</v>
+      </c>
+      <c r="C425" s="5">
+        <f t="shared" si="7"/>
+        <v>57.2</v>
+      </c>
+      <c r="D425" s="3">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="10">
+        <v>1010</v>
+      </c>
+      <c r="B426" s="14">
+        <v>56</v>
+      </c>
+      <c r="C426" s="5">
+        <f t="shared" si="7"/>
+        <v>57.1</v>
+      </c>
+      <c r="D426" s="3">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="10">
+        <v>1020</v>
+      </c>
+      <c r="B427" s="14">
+        <v>55.9</v>
+      </c>
+      <c r="C427" s="5">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="10">
-        <v>930</v>
-      </c>
-      <c r="B374" s="14">
-        <v>54.5</v>
-      </c>
-      <c r="C374" s="5">
+      <c r="D427" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="10">
+        <v>1030</v>
+      </c>
+      <c r="B428" s="14">
+        <v>55.8</v>
+      </c>
+      <c r="C428" s="5">
         <f t="shared" si="7"/>
         <v>56.9</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="10">
-        <v>940</v>
-      </c>
-      <c r="B375" s="14">
-        <v>54.3</v>
-      </c>
-      <c r="C375" s="5">
+      <c r="D428" s="3">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="10">
+        <v>1040</v>
+      </c>
+      <c r="B429" s="14">
+        <v>55.7</v>
+      </c>
+      <c r="C429" s="5">
         <f t="shared" si="7"/>
-        <v>56.699999999999996</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="10">
-        <v>950</v>
-      </c>
-      <c r="B376" s="14">
-        <v>54.1</v>
-      </c>
-      <c r="C376" s="5">
+        <v>56.800000000000004</v>
+      </c>
+      <c r="D429" s="3">
+        <v>56.800000000000004</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="10">
+        <v>1050</v>
+      </c>
+      <c r="B430" s="14">
+        <v>55.6</v>
+      </c>
+      <c r="C430" s="5">
+        <f t="shared" si="7"/>
+        <v>56.7</v>
+      </c>
+      <c r="D430" s="3">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="10">
+        <v>1060</v>
+      </c>
+      <c r="B431" s="14">
+        <v>55.5</v>
+      </c>
+      <c r="C431" s="5">
+        <f t="shared" si="7"/>
+        <v>56.6</v>
+      </c>
+      <c r="D431" s="3">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="10">
+        <v>1070</v>
+      </c>
+      <c r="B432" s="14">
+        <v>55.4</v>
+      </c>
+      <c r="C432" s="5">
         <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="10">
-        <v>960</v>
-      </c>
-      <c r="B377" s="14">
-        <v>53.9</v>
-      </c>
-      <c r="C377" s="5">
+      <c r="D432" s="3">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="10">
+        <v>1080</v>
+      </c>
+      <c r="B433" s="14">
+        <v>55.2</v>
+      </c>
+      <c r="C433" s="5">
         <f t="shared" si="7"/>
-        <v>56.3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="10">
-        <v>970</v>
-      </c>
-      <c r="B378" s="14">
-        <v>53.7</v>
-      </c>
-      <c r="C378" s="5">
+        <v>56.300000000000004</v>
+      </c>
+      <c r="D433" s="3">
+        <v>56.300000000000004</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="10">
+        <v>1090</v>
+      </c>
+      <c r="B434" s="14">
+        <v>55.1</v>
+      </c>
+      <c r="C434" s="5">
+        <f t="shared" si="7"/>
+        <v>56.2</v>
+      </c>
+      <c r="D434" s="3">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="10">
+        <v>1100</v>
+      </c>
+      <c r="B435" s="14">
+        <v>55</v>
+      </c>
+      <c r="C435" s="5">
         <f t="shared" si="7"/>
         <v>56.1</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="10">
-        <v>980</v>
-      </c>
-      <c r="B379" s="14">
-        <v>53.5</v>
-      </c>
-      <c r="C379" s="5">
+      <c r="D435" s="3">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="10">
+        <v>1110</v>
+      </c>
+      <c r="B436" s="14">
+        <v>54.8</v>
+      </c>
+      <c r="C436" s="5">
         <f t="shared" si="7"/>
         <v>55.9</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="10">
-        <v>990</v>
-      </c>
-      <c r="B380" s="14">
-        <v>53.2</v>
-      </c>
-      <c r="C380" s="5">
+      <c r="D436" s="3">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="10">
+        <v>1120</v>
+      </c>
+      <c r="B437" s="14">
+        <v>54.6</v>
+      </c>
+      <c r="C437" s="5">
+        <f t="shared" si="7"/>
+        <v>55.7</v>
+      </c>
+      <c r="D437" s="3">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="10">
+        <v>1130</v>
+      </c>
+      <c r="B438" s="14">
+        <v>54.5</v>
+      </c>
+      <c r="C438" s="5">
         <f t="shared" si="7"/>
         <v>55.6</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="10">
-        <v>1000</v>
-      </c>
-      <c r="B381" s="14">
+      <c r="D438" s="3">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="10">
+        <v>1140</v>
+      </c>
+      <c r="B439" s="14">
+        <v>54.3</v>
+      </c>
+      <c r="C439" s="5">
+        <f t="shared" si="7"/>
+        <v>55.4</v>
+      </c>
+      <c r="D439" s="3">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="10">
+        <v>1150</v>
+      </c>
+      <c r="B440" s="14">
+        <v>54.1</v>
+      </c>
+      <c r="C440" s="5">
+        <f t="shared" si="7"/>
+        <v>55.2</v>
+      </c>
+      <c r="D440" s="3">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="10">
+        <v>1160</v>
+      </c>
+      <c r="B441" s="14">
+        <v>53.9</v>
+      </c>
+      <c r="C441" s="5">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="D441" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="10">
+        <v>1170</v>
+      </c>
+      <c r="B442" s="14">
+        <v>53.7</v>
+      </c>
+      <c r="C442" s="5">
+        <f t="shared" si="7"/>
+        <v>54.800000000000004</v>
+      </c>
+      <c r="D442" s="3">
+        <v>54.800000000000004</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="10">
+        <v>1180</v>
+      </c>
+      <c r="B443" s="14">
+        <v>53.5</v>
+      </c>
+      <c r="C443" s="5">
+        <f t="shared" si="7"/>
+        <v>54.6</v>
+      </c>
+      <c r="D443" s="3">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="10">
+        <v>1190</v>
+      </c>
+      <c r="B444" s="14">
+        <v>53.2</v>
+      </c>
+      <c r="C444" s="5">
+        <f t="shared" si="7"/>
+        <v>54.300000000000004</v>
+      </c>
+      <c r="D444" s="3">
+        <v>54.300000000000004</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="10">
+        <v>1200</v>
+      </c>
+      <c r="B445" s="14">
         <v>52.9</v>
       </c>
-      <c r="C381" s="5">
+      <c r="C445" s="5">
         <f t="shared" si="7"/>
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="10">
-        <v>1010</v>
-      </c>
-      <c r="B382" s="14">
+        <v>54</v>
+      </c>
+      <c r="D445" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="10">
+        <v>1210</v>
+      </c>
+      <c r="B446" s="14">
         <v>52.7</v>
       </c>
-      <c r="C382" s="5">
+      <c r="C446" s="5">
         <f t="shared" si="7"/>
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="10">
-        <v>1020</v>
-      </c>
-      <c r="B383" s="14">
+        <v>53.800000000000004</v>
+      </c>
+      <c r="D446" s="3">
+        <v>53.800000000000004</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="10">
+        <v>1220</v>
+      </c>
+      <c r="B447" s="14">
         <v>52.4</v>
       </c>
-      <c r="C383" s="5">
+      <c r="C447" s="5">
         <f t="shared" si="7"/>
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="10">
-        <v>1030</v>
-      </c>
-      <c r="B384" s="14">
+        <v>53.5</v>
+      </c>
+      <c r="D447" s="3">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="10">
+        <v>1230</v>
+      </c>
+      <c r="B448" s="14">
         <v>52.1</v>
       </c>
-      <c r="C384" s="5">
+      <c r="C448" s="5">
         <f t="shared" si="7"/>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="10">
-        <v>1040</v>
-      </c>
-      <c r="B385" s="14">
+        <v>53.2</v>
+      </c>
+      <c r="D448" s="3">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="10">
+        <v>1240</v>
+      </c>
+      <c r="B449" s="14">
         <v>51.8</v>
       </c>
-      <c r="C385" s="5">
-        <f t="shared" si="7"/>
-        <v>54.199999999999996</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="10">
-        <v>1050</v>
-      </c>
-      <c r="B386" s="14">
-        <v>51.5</v>
-      </c>
-      <c r="C386" s="5">
-        <f t="shared" si="7"/>
-        <v>53.9</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="10">
-        <v>1060</v>
-      </c>
-      <c r="B387" s="14">
-        <v>51.2</v>
-      </c>
-      <c r="C387" s="5">
-        <f t="shared" si="7"/>
-        <v>53.6</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="10">
-        <v>1070</v>
-      </c>
-      <c r="B388" s="14">
-        <v>50.9</v>
-      </c>
-      <c r="C388" s="5">
-        <f t="shared" si="7"/>
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="10">
-        <v>1080</v>
-      </c>
-      <c r="B389" s="14">
-        <v>50.5</v>
-      </c>
-      <c r="C389" s="5">
+      <c r="C449" s="5">
         <f t="shared" si="7"/>
         <v>52.9</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="10">
-        <v>1090</v>
-      </c>
-      <c r="B390" s="14">
-        <v>50.2</v>
-      </c>
-      <c r="C390" s="5">
+      <c r="D449" s="3">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="10">
+        <v>1250</v>
+      </c>
+      <c r="B450" s="14">
+        <v>51.5</v>
+      </c>
+      <c r="C450" s="5">
         <f t="shared" si="7"/>
         <v>52.6</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="10">
-        <v>1100</v>
-      </c>
-      <c r="B391" s="14">
-        <v>49.8</v>
-      </c>
-      <c r="C391" s="5">
+      <c r="D450" s="3">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="10">
+        <v>1260</v>
+      </c>
+      <c r="B451" s="14">
+        <v>51.2</v>
+      </c>
+      <c r="C451" s="5">
         <f t="shared" si="7"/>
-        <v>52.199999999999996</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="10">
-        <v>1110</v>
-      </c>
-      <c r="B392" s="14">
-        <v>49.5</v>
-      </c>
-      <c r="C392" s="5">
+        <v>52.300000000000004</v>
+      </c>
+      <c r="D451" s="3">
+        <v>52.300000000000004</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="10">
+        <v>1270</v>
+      </c>
+      <c r="B452" s="14">
+        <v>50.9</v>
+      </c>
+      <c r="C452" s="5">
         <f t="shared" si="7"/>
-        <v>51.9</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="10">
-        <v>1120</v>
-      </c>
-      <c r="B393" s="14">
-        <v>49.2</v>
-      </c>
-      <c r="C393" s="5">
+        <v>52</v>
+      </c>
+      <c r="D452" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="10">
+        <v>1280</v>
+      </c>
+      <c r="B453" s="14">
+        <v>50.5</v>
+      </c>
+      <c r="C453" s="5">
         <f t="shared" si="7"/>
         <v>51.6</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="10">
-        <v>1130</v>
-      </c>
-      <c r="B394" s="14">
-        <v>48.8</v>
-      </c>
-      <c r="C394" s="5">
+      <c r="D453" s="3">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="10">
+        <v>1290</v>
+      </c>
+      <c r="B454" s="14">
+        <v>50.2</v>
+      </c>
+      <c r="C454" s="5">
         <f t="shared" si="7"/>
-        <v>51.199999999999996</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="10">
-        <v>1140</v>
-      </c>
-      <c r="B395" s="14">
-        <v>48.5</v>
-      </c>
-      <c r="C395" s="5">
+        <v>51.300000000000004</v>
+      </c>
+      <c r="D454" s="3">
+        <v>51.300000000000004</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="10">
+        <v>1300</v>
+      </c>
+      <c r="B455" s="14">
+        <v>49.8</v>
+      </c>
+      <c r="C455" s="5">
         <f t="shared" si="7"/>
         <v>50.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="10">
-        <v>1150</v>
-      </c>
-      <c r="B396" s="14">
+      <c r="D455" s="3">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="10">
+        <v>1310</v>
+      </c>
+      <c r="B456" s="14">
+        <v>49.5</v>
+      </c>
+      <c r="C456" s="5">
+        <f t="shared" si="7"/>
+        <v>50.6</v>
+      </c>
+      <c r="D456" s="3">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="10">
+        <v>1320</v>
+      </c>
+      <c r="B457" s="14">
+        <v>49.2</v>
+      </c>
+      <c r="C457" s="5">
+        <f t="shared" si="7"/>
+        <v>50.300000000000004</v>
+      </c>
+      <c r="D457" s="3">
+        <v>50.300000000000004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="10">
+        <v>1330</v>
+      </c>
+      <c r="B458" s="14">
+        <v>48.8</v>
+      </c>
+      <c r="C458" s="5">
+        <f t="shared" si="7"/>
+        <v>49.9</v>
+      </c>
+      <c r="D458" s="3">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="10">
+        <v>1340</v>
+      </c>
+      <c r="B459" s="14">
+        <v>48.5</v>
+      </c>
+      <c r="C459" s="5">
+        <f t="shared" si="7"/>
+        <v>49.6</v>
+      </c>
+      <c r="D459" s="3">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="10">
+        <v>1350</v>
+      </c>
+      <c r="B460" s="14">
         <v>48.1</v>
       </c>
-      <c r="C396" s="5">
+      <c r="C460" s="5">
         <f t="shared" si="7"/>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="10">
-        <v>1160</v>
-      </c>
-      <c r="B397" s="14">
+        <v>49.2</v>
+      </c>
+      <c r="D460" s="3">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="10">
+        <v>1360</v>
+      </c>
+      <c r="B461" s="14">
         <v>47.7</v>
       </c>
-      <c r="C397" s="5">
+      <c r="C461" s="5">
         <f t="shared" si="7"/>
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="10">
-        <v>1170</v>
-      </c>
-      <c r="B398" s="14">
+        <v>48.800000000000004</v>
+      </c>
+      <c r="D461" s="3">
+        <v>48.800000000000004</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="10">
+        <v>1370</v>
+      </c>
+      <c r="B462" s="14">
         <v>47.4</v>
       </c>
-      <c r="C398" s="5">
-        <f t="shared" si="7"/>
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="10">
-        <v>1180</v>
-      </c>
-      <c r="B399" s="14">
-        <v>47.1</v>
-      </c>
-      <c r="C399" s="5">
-        <f t="shared" si="7"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="10">
-        <v>1190</v>
-      </c>
-      <c r="B400" s="14">
-        <v>46.8</v>
-      </c>
-      <c r="C400" s="5">
-        <f t="shared" si="7"/>
-        <v>49.199999999999996</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="10">
-        <v>1200</v>
-      </c>
-      <c r="B401" s="14">
-        <v>46.4</v>
-      </c>
-      <c r="C401" s="5">
-        <f t="shared" si="7"/>
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="10">
-        <v>1210</v>
-      </c>
-      <c r="B402" s="14">
-        <v>46.1</v>
-      </c>
-      <c r="C402" s="5">
+      <c r="C462" s="5">
         <f t="shared" si="7"/>
         <v>48.5</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="10">
-        <v>1220</v>
-      </c>
-      <c r="B403" s="14">
-        <v>45.8</v>
-      </c>
-      <c r="C403" s="5">
+      <c r="D462" s="3">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="10">
+        <v>1380</v>
+      </c>
+      <c r="B463" s="14">
+        <v>47.1</v>
+      </c>
+      <c r="C463" s="5">
         <f t="shared" si="7"/>
-        <v>48.199999999999996</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="10">
-        <v>1230</v>
-      </c>
-      <c r="B404" s="14">
-        <v>45.5</v>
-      </c>
-      <c r="C404" s="5">
+        <v>48.2</v>
+      </c>
+      <c r="D463" s="3">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="10">
+        <v>1390</v>
+      </c>
+      <c r="B464" s="14">
+        <v>46.8</v>
+      </c>
+      <c r="C464" s="5">
         <f t="shared" si="7"/>
         <v>47.9</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="10">
-        <v>1240</v>
-      </c>
-      <c r="B405" s="14">
-        <v>45.1</v>
-      </c>
-      <c r="C405" s="5">
+      <c r="D464" s="3">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="10">
+        <v>1400</v>
+      </c>
+      <c r="B465" s="14">
+        <v>46.4</v>
+      </c>
+      <c r="C465" s="5">
         <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="10">
-        <v>1250</v>
-      </c>
-      <c r="B406" s="14">
+      <c r="D465" s="3">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="10">
+        <v>1410</v>
+      </c>
+      <c r="B466" s="14">
+        <v>46.1</v>
+      </c>
+      <c r="C466" s="5">
+        <f t="shared" si="7"/>
+        <v>47.2</v>
+      </c>
+      <c r="D466" s="3">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="10">
+        <v>1420</v>
+      </c>
+      <c r="B467" s="14">
+        <v>45.8</v>
+      </c>
+      <c r="C467" s="5">
+        <f t="shared" si="7"/>
+        <v>46.9</v>
+      </c>
+      <c r="D467" s="3">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="10">
+        <v>1430</v>
+      </c>
+      <c r="B468" s="14">
+        <v>45.5</v>
+      </c>
+      <c r="C468" s="5">
+        <f t="shared" si="7"/>
+        <v>46.6</v>
+      </c>
+      <c r="D468" s="3">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="10">
+        <v>1440</v>
+      </c>
+      <c r="B469" s="14">
+        <v>45.1</v>
+      </c>
+      <c r="C469" s="5">
+        <f t="shared" si="7"/>
+        <v>46.2</v>
+      </c>
+      <c r="D469" s="3">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="10">
+        <v>1450</v>
+      </c>
+      <c r="B470" s="14">
         <v>44.9</v>
       </c>
-      <c r="C406" s="5">
+      <c r="C470" s="5">
         <f t="shared" si="7"/>
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="10">
-        <v>1260</v>
-      </c>
-      <c r="B407" s="14">
+        <v>46</v>
+      </c>
+      <c r="D470" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="10">
+        <v>1460</v>
+      </c>
+      <c r="B471" s="14">
         <v>44.6</v>
       </c>
-      <c r="C407" s="5">
+      <c r="C471" s="5">
         <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="10">
-        <v>1270</v>
-      </c>
-      <c r="B408" s="14">
+        <v>45.7</v>
+      </c>
+      <c r="D471" s="3">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="10">
+        <v>1470</v>
+      </c>
+      <c r="B472" s="14">
         <v>44.4</v>
       </c>
-      <c r="C408" s="5">
-        <f t="shared" si="7"/>
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="10">
-        <v>1280</v>
-      </c>
-      <c r="B409" s="14">
-        <v>44.1</v>
-      </c>
-      <c r="C409" s="5">
-        <f t="shared" si="7"/>
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="10">
-        <v>1290</v>
-      </c>
-      <c r="B410" s="14">
-        <v>43.9</v>
-      </c>
-      <c r="C410" s="5">
-        <f t="shared" si="7"/>
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="10">
-        <v>1300</v>
-      </c>
-      <c r="B411" s="14">
-        <v>43.7</v>
-      </c>
-      <c r="C411" s="5">
-        <f t="shared" si="7"/>
-        <v>46.1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="10">
-        <v>1310</v>
-      </c>
-      <c r="B412" s="14">
-        <v>43.5</v>
-      </c>
-      <c r="C412" s="5">
-        <f t="shared" si="7"/>
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="10">
-        <v>1320</v>
-      </c>
-      <c r="B413" s="14">
-        <v>43.3</v>
-      </c>
-      <c r="C413" s="5">
-        <f t="shared" si="7"/>
-        <v>45.699999999999996</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="10">
-        <v>1330</v>
-      </c>
-      <c r="B414" s="14">
-        <v>43.1</v>
-      </c>
-      <c r="C414" s="5">
+      <c r="C472" s="5">
         <f t="shared" si="7"/>
         <v>45.5</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="10">
-        <v>1340</v>
-      </c>
-      <c r="B415" s="14">
+      <c r="D472" s="3">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="10">
+        <v>1480</v>
+      </c>
+      <c r="B473" s="14">
+        <v>44.1</v>
+      </c>
+      <c r="C473" s="5">
+        <f t="shared" si="7"/>
+        <v>45.2</v>
+      </c>
+      <c r="D473" s="3">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="10">
+        <v>1490</v>
+      </c>
+      <c r="B474" s="14">
+        <v>43.9</v>
+      </c>
+      <c r="C474" s="5">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="D474" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="10">
+        <v>1500</v>
+      </c>
+      <c r="B475" s="14">
+        <v>43.7</v>
+      </c>
+      <c r="C475" s="5">
+        <f t="shared" si="7"/>
+        <v>44.800000000000004</v>
+      </c>
+      <c r="D475" s="3">
+        <v>44.800000000000004</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="10">
+        <v>1510</v>
+      </c>
+      <c r="B476" s="14">
+        <v>43.5</v>
+      </c>
+      <c r="C476" s="5">
+        <f t="shared" si="7"/>
+        <v>44.6</v>
+      </c>
+      <c r="D476" s="3">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="10">
+        <v>1520</v>
+      </c>
+      <c r="B477" s="14">
+        <v>43.3</v>
+      </c>
+      <c r="C477" s="5">
+        <f t="shared" si="7"/>
+        <v>44.4</v>
+      </c>
+      <c r="D477" s="3">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="10">
+        <v>1530</v>
+      </c>
+      <c r="B478" s="14">
+        <v>43.1</v>
+      </c>
+      <c r="C478" s="5">
+        <f t="shared" si="7"/>
+        <v>44.2</v>
+      </c>
+      <c r="D478" s="3">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="10">
+        <v>1540</v>
+      </c>
+      <c r="B479" s="14">
         <v>42.9</v>
       </c>
-      <c r="C415" s="5">
+      <c r="C479" s="5">
         <f t="shared" si="7"/>
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="10">
-        <v>1350</v>
-      </c>
-      <c r="B416" s="14">
+        <v>44</v>
+      </c>
+      <c r="D479" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="10">
+        <v>1550</v>
+      </c>
+      <c r="B480" s="14">
         <v>42.8</v>
       </c>
-      <c r="C416" s="5">
-        <f t="shared" ref="C416:C439" si="8">B416+2.4</f>
-        <v>45.199999999999996</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="10">
-        <v>1360</v>
-      </c>
-      <c r="B417" s="14">
+      <c r="C480" s="5">
+        <f>B480+2.4-1.3</f>
+        <v>43.9</v>
+      </c>
+      <c r="D480" s="3">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="10">
+        <v>1560</v>
+      </c>
+      <c r="B481" s="14">
         <v>42.6</v>
       </c>
-      <c r="C417" s="5">
+      <c r="C481" s="5">
+        <f>B481+2.4-1.3</f>
+        <v>43.7</v>
+      </c>
+      <c r="D481" s="3">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="10">
+        <v>1570</v>
+      </c>
+      <c r="B482" s="14">
+        <v>42.4</v>
+      </c>
+      <c r="C482" s="5">
+        <f>B482+2.4-1.3</f>
+        <v>43.5</v>
+      </c>
+      <c r="D482" s="3">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="10">
+        <v>1580</v>
+      </c>
+      <c r="B483" s="14">
+        <v>42.2</v>
+      </c>
+      <c r="C483" s="5">
+        <f>B483+2.4-1.3</f>
+        <v>43.300000000000004</v>
+      </c>
+      <c r="D483" s="3">
+        <v>43.300000000000004</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B484" s="14">
+        <v>42.1</v>
+      </c>
+      <c r="C484" s="5">
+        <f>B484+2.4-1.3</f>
+        <v>43.2</v>
+      </c>
+      <c r="D484" s="3">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B485" s="14">
+        <v>42</v>
+      </c>
+      <c r="C485" s="5">
+        <f>B485+2.4-1.3</f>
+        <v>43.1</v>
+      </c>
+      <c r="D485" s="3">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B486" s="14">
+        <v>41.8</v>
+      </c>
+      <c r="C486" s="5">
+        <f t="shared" ref="C486:C503" si="8">B486+2.4-1.3</f>
+        <v>42.9</v>
+      </c>
+      <c r="D486" s="3">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B487" s="14">
+        <v>41.6</v>
+      </c>
+      <c r="C487" s="5">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="10">
-        <v>1370</v>
-      </c>
-      <c r="B418" s="14">
-        <v>42.4</v>
-      </c>
-      <c r="C418" s="5">
+        <v>42.7</v>
+      </c>
+      <c r="D487" s="3">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B488" s="14">
+        <v>41.5</v>
+      </c>
+      <c r="C488" s="5">
         <f t="shared" si="8"/>
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="10">
-        <v>1380</v>
-      </c>
-      <c r="B419" s="14">
-        <v>42.2</v>
-      </c>
-      <c r="C419" s="5">
-        <f t="shared" si="8"/>
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="10">
-        <v>1390</v>
-      </c>
-      <c r="B420" s="14">
-        <v>42.1</v>
-      </c>
-      <c r="C420" s="5">
-        <f t="shared" si="8"/>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="10">
-        <v>1400</v>
-      </c>
-      <c r="B421" s="14">
-        <v>42</v>
-      </c>
-      <c r="C421" s="5">
-        <f t="shared" si="8"/>
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="10">
-        <v>1410</v>
-      </c>
-      <c r="B422" s="14">
-        <v>41.8</v>
-      </c>
-      <c r="C422" s="5">
-        <f t="shared" si="8"/>
-        <v>44.199999999999996</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="10">
-        <v>1420</v>
-      </c>
-      <c r="B423" s="14">
-        <v>41.6</v>
-      </c>
-      <c r="C423" s="5">
-        <f t="shared" si="8"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="10">
-        <v>1430</v>
-      </c>
-      <c r="B424" s="14">
-        <v>41.5</v>
-      </c>
-      <c r="C424" s="5">
-        <f t="shared" si="8"/>
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="10">
-        <v>1440</v>
-      </c>
-      <c r="B425" s="14">
+        <v>42.6</v>
+      </c>
+      <c r="D488" s="3">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B489" s="14">
         <v>41.3</v>
       </c>
-      <c r="C425" s="5">
-        <f t="shared" si="8"/>
-        <v>43.699999999999996</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="10">
-        <v>1450</v>
-      </c>
-      <c r="B426" s="14">
-        <v>41.2</v>
-      </c>
-      <c r="C426" s="5">
-        <f t="shared" si="8"/>
-        <v>43.6</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="10">
-        <v>1460</v>
-      </c>
-      <c r="B427" s="14">
-        <v>41</v>
-      </c>
-      <c r="C427" s="5">
-        <f t="shared" si="8"/>
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="10">
-        <v>1470</v>
-      </c>
-      <c r="B428" s="14">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="C428" s="5">
-        <f t="shared" si="8"/>
-        <v>43.199999999999996</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="10">
-        <v>1480</v>
-      </c>
-      <c r="B429" s="14">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="C429" s="5">
-        <f t="shared" si="8"/>
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="10">
-        <v>1490</v>
-      </c>
-      <c r="B430" s="14">
-        <v>40.5</v>
-      </c>
-      <c r="C430" s="5">
-        <f t="shared" si="8"/>
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="10">
-        <v>1500</v>
-      </c>
-      <c r="B431" s="14">
-        <v>40.4</v>
-      </c>
-      <c r="C431" s="5">
-        <f t="shared" si="8"/>
-        <v>42.8</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="10">
-        <v>1510</v>
-      </c>
-      <c r="B432" s="14">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="C432" s="5">
-        <f t="shared" si="8"/>
-        <v>42.699999999999996</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="10">
-        <v>1520</v>
-      </c>
-      <c r="B433" s="14">
-        <v>40.1</v>
-      </c>
-      <c r="C433" s="5">
-        <f t="shared" si="8"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="10">
-        <v>1530</v>
-      </c>
-      <c r="B434" s="14">
-        <v>40</v>
-      </c>
-      <c r="C434" s="5">
+      <c r="C489" s="5">
         <f t="shared" si="8"/>
         <v>42.4</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="10">
-        <v>1540</v>
-      </c>
-      <c r="B435" s="14">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="C435" s="5">
+      <c r="D489" s="3">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B490" s="14">
+        <v>41.2</v>
+      </c>
+      <c r="C490" s="5">
         <f t="shared" si="8"/>
-        <v>42.199999999999996</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="10">
-        <v>1550</v>
-      </c>
-      <c r="B436" s="14">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="C436" s="5">
+        <v>42.300000000000004</v>
+      </c>
+      <c r="D490" s="3">
+        <v>42.300000000000004</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B491" s="14">
+        <v>41</v>
+      </c>
+      <c r="C491" s="5">
         <f t="shared" si="8"/>
         <v>42.1</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="10">
-        <v>1560</v>
-      </c>
-      <c r="B437" s="14">
-        <v>39.5</v>
-      </c>
-      <c r="C437" s="5">
+      <c r="D491" s="3">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B492" s="14">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="C492" s="5">
         <f t="shared" si="8"/>
         <v>41.9</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="10">
-        <v>1570</v>
-      </c>
-      <c r="B438" s="14">
-        <v>39.4</v>
-      </c>
-      <c r="C438" s="5">
+      <c r="D492" s="3">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B493" s="14">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C493" s="5">
         <f t="shared" si="8"/>
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="10">
-        <v>1580</v>
-      </c>
-      <c r="B439" s="14">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C439" s="5">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="D493" s="3">
+        <v>41.800000000000004</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B494" s="14">
+        <v>40.5</v>
+      </c>
+      <c r="C494" s="5">
         <f t="shared" si="8"/>
         <v>41.6</v>
+      </c>
+      <c r="D494" s="3">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B495" s="14">
+        <v>40.4</v>
+      </c>
+      <c r="C495" s="5">
+        <f t="shared" si="8"/>
+        <v>41.5</v>
+      </c>
+      <c r="D495" s="3">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B496" s="14">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C496" s="5">
+        <f t="shared" si="8"/>
+        <v>41.4</v>
+      </c>
+      <c r="D496" s="3">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B497" s="14">
+        <v>40.1</v>
+      </c>
+      <c r="C497" s="5">
+        <f t="shared" si="8"/>
+        <v>41.2</v>
+      </c>
+      <c r="D497" s="3">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B498" s="14">
+        <v>40</v>
+      </c>
+      <c r="C498" s="5">
+        <f t="shared" si="8"/>
+        <v>41.1</v>
+      </c>
+      <c r="D498" s="3">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B499" s="14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C499" s="5">
+        <f t="shared" si="8"/>
+        <v>40.9</v>
+      </c>
+      <c r="D499" s="3">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B500" s="14">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="C500" s="5">
+        <f t="shared" si="8"/>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="D500" s="3">
+        <v>40.800000000000004</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B501" s="14">
+        <v>39.5</v>
+      </c>
+      <c r="C501" s="5">
+        <f t="shared" si="8"/>
+        <v>40.6</v>
+      </c>
+      <c r="D501" s="3">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B502" s="14">
+        <v>39.4</v>
+      </c>
+      <c r="C502" s="5">
+        <f t="shared" si="8"/>
+        <v>40.5</v>
+      </c>
+      <c r="D502" s="3">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B503" s="14">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C503" s="5">
+        <f t="shared" si="8"/>
+        <v>40.300000000000004</v>
+      </c>
+      <c r="D503" s="3">
+        <v>40.300000000000004</v>
       </c>
     </row>
   </sheetData>
